--- a/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Up_and_down/Binance_BTC-USDT_1d/trades.xlsx
+++ b/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Up_and_down/Binance_BTC-USDT_1d/trades.xlsx
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J171"/>
+  <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,5441 +446,5921 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>27288</v>
+        <v>13399</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>117</v>
       </c>
       <c r="D2">
-        <v>0.00726302577</v>
+        <v>0.007395818429999999</v>
       </c>
       <c r="E2">
         <v>0.008965486071524087</v>
       </c>
       <c r="F2">
-        <v>46.45673670798929</v>
+        <v>21.03197672878125</v>
       </c>
       <c r="G2">
-        <v>0.2344009721893203</v>
+        <v>0.2122371792088584</v>
       </c>
       <c r="H2" s="2">
-        <v>43824</v>
+        <v>43829</v>
       </c>
       <c r="I2" s="2">
         <v>43887</v>
       </c>
       <c r="J2" s="3">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>27059</v>
+        <v>13531</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>117</v>
       </c>
       <c r="D3">
-        <v>0.0073246173</v>
+        <v>0.007322675359999999</v>
       </c>
       <c r="E3">
         <v>0.008965486071524087</v>
       </c>
       <c r="F3">
-        <v>44.40026808867027</v>
+        <v>22.22887173763243</v>
       </c>
       <c r="G3">
-        <v>0.2240210927503457</v>
+        <v>0.2243456975435394</v>
       </c>
       <c r="H3" s="2">
-        <v>43823</v>
+        <v>43828</v>
       </c>
       <c r="I3" s="2">
         <v>43887</v>
       </c>
       <c r="J3" s="3">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>26394</v>
+        <v>13646</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>117</v>
       </c>
       <c r="D4">
-        <v>0.007508210709999999</v>
+        <v>0.00726202477</v>
       </c>
       <c r="E4">
         <v>0.008965486071524087</v>
       </c>
       <c r="F4">
-        <v>38.46332589206677</v>
+        <v>23.24543292059769</v>
       </c>
       <c r="G4">
-        <v>0.194090898325906</v>
+        <v>0.2345711224452469</v>
       </c>
       <c r="H4" s="2">
-        <v>43822</v>
+        <v>43827</v>
       </c>
       <c r="I4" s="2">
         <v>43887</v>
       </c>
       <c r="J4" s="3">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>27759</v>
+        <v>13746</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>117</v>
       </c>
       <c r="D5">
-        <v>0.007138721589999999</v>
+        <v>0.007209202</v>
       </c>
       <c r="E5">
         <v>0.008965486071524087</v>
       </c>
       <c r="F5">
-        <v>50.70915524262715</v>
+        <v>24.1418808471701</v>
       </c>
       <c r="G5">
-        <v>0.2558951849422226</v>
+        <v>0.2436169872232858</v>
       </c>
       <c r="H5" s="2">
-        <v>43821</v>
+        <v>43826</v>
       </c>
       <c r="I5" s="2">
         <v>43887</v>
       </c>
       <c r="J5" s="3">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>27546</v>
+        <v>13741</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>117</v>
       </c>
       <c r="D6">
-        <v>0.007195198009999999</v>
+        <v>0.007212215009999999</v>
       </c>
       <c r="E6">
         <v>0.008965486071524087</v>
       </c>
       <c r="F6">
-        <v>48.76435494274253</v>
+        <v>24.09169765640249</v>
       </c>
       <c r="G6">
-        <v>0.2460374348369168</v>
+        <v>0.2430974477456807</v>
       </c>
       <c r="H6" s="2">
-        <v>43820</v>
+        <v>43825</v>
       </c>
       <c r="I6" s="2">
         <v>43887</v>
       </c>
       <c r="J6" s="3">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>26980</v>
+        <v>13644</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>117</v>
       </c>
       <c r="D7">
-        <v>0.00734597864</v>
+        <v>0.00726302577</v>
       </c>
       <c r="E7">
         <v>0.008965486071524087</v>
       </c>
       <c r="F7">
-        <v>43.69431050251988</v>
+        <v>23.22836835399465</v>
       </c>
       <c r="G7">
-        <v>0.2204617670279649</v>
+        <v>0.2344009721893203</v>
       </c>
       <c r="H7" s="2">
-        <v>43809</v>
+        <v>43824</v>
       </c>
       <c r="I7" s="2">
         <v>43887</v>
       </c>
       <c r="J7" s="3">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>26364</v>
+        <v>13529</v>
       </c>
       <c r="B8">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>117</v>
       </c>
       <c r="D8">
-        <v>0.007517620109999999</v>
+        <v>0.0073246173</v>
       </c>
       <c r="E8">
         <v>0.008965486071524087</v>
       </c>
       <c r="F8">
-        <v>38.17153820962106</v>
+        <v>22.19931360994937</v>
       </c>
       <c r="G8">
-        <v>0.1925963190928104</v>
+        <v>0.2240210927503457</v>
       </c>
       <c r="H8" s="2">
-        <v>43808</v>
+        <v>43823</v>
       </c>
       <c r="I8" s="2">
         <v>43887</v>
       </c>
       <c r="J8" s="3">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>26441</v>
+        <v>13197</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>117</v>
       </c>
       <c r="D9">
-        <v>0.00749479731</v>
+        <v>0.007508210709999999</v>
       </c>
       <c r="E9">
         <v>0.008965486071524087</v>
       </c>
       <c r="F9">
-        <v>38.88648154345839</v>
+        <v>19.23166294603338</v>
       </c>
       <c r="G9">
-        <v>0.1962279566335714</v>
+        <v>0.194090898325906</v>
       </c>
       <c r="H9" s="2">
-        <v>43807</v>
+        <v>43822</v>
       </c>
       <c r="I9" s="2">
         <v>43887</v>
       </c>
       <c r="J9" s="3">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>34042</v>
+        <v>13704</v>
       </c>
       <c r="B10">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="D10">
-        <v>0.00582186605</v>
+        <v>0.007231374149999999</v>
       </c>
       <c r="E10">
-        <v>0.009119161948694013</v>
+        <v>0.008965486071524087</v>
       </c>
       <c r="F10">
-        <v>112.2465469833416</v>
+        <v>23.7642697725661</v>
       </c>
       <c r="G10">
-        <v>0.5663640953563356</v>
+        <v>0.2398039273799832</v>
       </c>
       <c r="H10" s="2">
-        <v>43913</v>
+        <v>43810</v>
       </c>
       <c r="I10" s="2">
-        <v>43993</v>
+        <v>43887</v>
       </c>
       <c r="J10" s="3">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>32002</v>
+        <v>13490</v>
       </c>
       <c r="B11">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="D11">
-        <v>0.006193227039999999</v>
+        <v>0.00734597864</v>
       </c>
       <c r="E11">
-        <v>0.009119161948694013</v>
+        <v>0.008965486071524087</v>
       </c>
       <c r="F11">
-        <v>93.63576894802584</v>
+        <v>21.84715525125994</v>
       </c>
       <c r="G11">
-        <v>0.4724410860116013</v>
+        <v>0.2204617670279649</v>
       </c>
       <c r="H11" s="2">
-        <v>43912</v>
+        <v>43809</v>
       </c>
       <c r="I11" s="2">
-        <v>43993</v>
+        <v>43887</v>
       </c>
       <c r="J11" s="3">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>31892</v>
+        <v>16832</v>
       </c>
       <c r="B12">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C12">
         <v>223</v>
       </c>
       <c r="D12">
-        <v>0.006210774569999999</v>
+        <v>0.0058863805</v>
       </c>
       <c r="E12">
         <v>0.009119161948694013</v>
       </c>
       <c r="F12">
-        <v>92.75429028130949</v>
+        <v>54.41417734441763</v>
       </c>
       <c r="G12">
-        <v>0.4682809440133993</v>
+        <v>0.5491968194536545</v>
       </c>
       <c r="H12" s="2">
-        <v>43911</v>
+        <v>43920</v>
       </c>
       <c r="I12" s="2">
         <v>43993</v>
       </c>
       <c r="J12" s="3">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>32130</v>
+        <v>15873</v>
       </c>
       <c r="B13">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C13">
         <v>223</v>
       </c>
       <c r="D13">
-        <v>0.00616821205</v>
+        <v>0.00624288665</v>
       </c>
       <c r="E13">
         <v>0.009119161948694013</v>
       </c>
       <c r="F13">
-        <v>94.81402024503863</v>
+        <v>45.65511781617008</v>
       </c>
       <c r="G13">
-        <v>0.4784125245327797</v>
+        <v>0.4607284193913745</v>
       </c>
       <c r="H13" s="2">
-        <v>43910</v>
+        <v>43919</v>
       </c>
       <c r="I13" s="2">
         <v>43993</v>
       </c>
       <c r="J13" s="3">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>36713</v>
+        <v>15568</v>
       </c>
       <c r="B14">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C14">
         <v>223</v>
       </c>
       <c r="D14">
-        <v>0.00539865326</v>
+        <v>0.006365469109999999</v>
       </c>
       <c r="E14">
         <v>0.009119161948694013</v>
       </c>
       <c r="F14">
-        <v>136.5910354880233</v>
+        <v>42.86949011278841</v>
       </c>
       <c r="G14">
-        <v>0.6891549631942862</v>
+        <v>0.4325985706800506</v>
       </c>
       <c r="H14" s="2">
-        <v>43909</v>
+        <v>43918</v>
       </c>
       <c r="I14" s="2">
         <v>43993</v>
       </c>
       <c r="J14" s="3">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>22626</v>
+        <v>14694</v>
       </c>
       <c r="B15">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C15">
         <v>223</v>
       </c>
       <c r="D15">
-        <v>0.008759740989999999</v>
+        <v>0.00674400727</v>
       </c>
       <c r="E15">
         <v>0.009119161948694013</v>
       </c>
       <c r="F15">
-        <v>8.13225861141076</v>
+        <v>34.90052284872983</v>
       </c>
       <c r="G15">
-        <v>0.04103100298334428</v>
+        <v>0.3521874434002521</v>
       </c>
       <c r="H15" s="2">
-        <v>43895</v>
+        <v>43917</v>
       </c>
       <c r="I15" s="2">
         <v>43993</v>
       </c>
       <c r="J15" s="3">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>22280</v>
+        <v>14826</v>
       </c>
       <c r="B16">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C16">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D16">
-        <v>0.008894135249999999</v>
+        <v>0.006684097419999999</v>
       </c>
       <c r="E16">
-        <v>0.009137943227288793</v>
+        <v>0.009119161948694013</v>
       </c>
       <c r="F16">
-        <v>5.432041733994324</v>
+        <v>36.10226670241745</v>
       </c>
       <c r="G16">
-        <v>0.02741221832541774</v>
+        <v>0.3643071570752201</v>
       </c>
       <c r="H16" s="2">
-        <v>43898</v>
+        <v>43916</v>
       </c>
       <c r="I16" s="2">
-        <v>43997</v>
+        <v>43993</v>
       </c>
       <c r="J16" s="3">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>21189</v>
+        <v>14678</v>
       </c>
       <c r="B17">
-        <v>249</v>
+        <v>145</v>
       </c>
       <c r="C17">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="D17">
-        <v>0.009351812469999998</v>
+        <v>0.006751434689999999</v>
       </c>
       <c r="E17">
-        <v>0.01141800027263146</v>
+        <v>0.009119161948694013</v>
       </c>
       <c r="F17">
-        <v>43.78045334995812</v>
+        <v>34.75350070311074</v>
       </c>
       <c r="G17">
-        <v>0.2209398241527682</v>
+        <v>0.3506998686073366</v>
       </c>
       <c r="H17" s="2">
-        <v>44019</v>
+        <v>43915</v>
       </c>
       <c r="I17" s="2">
-        <v>44076</v>
+        <v>43993</v>
       </c>
       <c r="J17" s="3">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>21858</v>
+        <v>15307</v>
       </c>
       <c r="B18">
-        <v>246</v>
+        <v>144</v>
       </c>
       <c r="C18">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="D18">
-        <v>0.009066847790000001</v>
+        <v>0.006471715249999999</v>
       </c>
       <c r="E18">
-        <v>0.01141800027263146</v>
+        <v>0.009119161948694013</v>
       </c>
       <c r="F18">
-        <v>51.39149096535852</v>
+        <v>40.52446661690927</v>
       </c>
       <c r="G18">
-        <v>0.2593131082695128</v>
+        <v>0.4090796019948519</v>
       </c>
       <c r="H18" s="2">
-        <v>44016</v>
+        <v>43914</v>
       </c>
       <c r="I18" s="2">
-        <v>44076</v>
+        <v>43993</v>
       </c>
       <c r="J18" s="3">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>21790</v>
+        <v>17021</v>
       </c>
       <c r="B19">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="C19">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="D19">
-        <v>0.00909562654</v>
+        <v>0.00582186605</v>
       </c>
       <c r="E19">
-        <v>0.01141800027263146</v>
+        <v>0.009119161948694013</v>
       </c>
       <c r="F19">
-        <v>50.60452363403959</v>
+        <v>56.12327349167079</v>
       </c>
       <c r="G19">
-        <v>0.2553286156174419</v>
+        <v>0.5663640953563356</v>
       </c>
       <c r="H19" s="2">
-        <v>44015</v>
+        <v>43913</v>
       </c>
       <c r="I19" s="2">
-        <v>44076</v>
+        <v>43993</v>
       </c>
       <c r="J19" s="3">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>21447</v>
+        <v>16001</v>
       </c>
       <c r="B20">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="C20">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="D20">
-        <v>0.009241221989999998</v>
+        <v>0.006193227039999999</v>
       </c>
       <c r="E20">
-        <v>0.01141800027263146</v>
+        <v>0.009119161948694013</v>
       </c>
       <c r="F20">
-        <v>46.68536382759705</v>
+        <v>46.81788447401292</v>
       </c>
       <c r="G20">
-        <v>0.2355509136115306</v>
+        <v>0.4724410860116013</v>
       </c>
       <c r="H20" s="2">
-        <v>44014</v>
+        <v>43912</v>
       </c>
       <c r="I20" s="2">
-        <v>44076</v>
+        <v>43993</v>
       </c>
       <c r="J20" s="3">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>21406</v>
+        <v>12323</v>
       </c>
       <c r="B21">
-        <v>238</v>
+        <v>129</v>
       </c>
       <c r="C21">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="D21">
-        <v>0.009258739489999997</v>
+        <v>0.008042794759999999</v>
       </c>
       <c r="E21">
-        <v>0.01141800027263146</v>
+        <v>0.009119161948694013</v>
       </c>
       <c r="F21">
-        <v>46.22113631300917</v>
+        <v>13.26407286627633</v>
       </c>
       <c r="G21">
-        <v>0.2332132559689792</v>
+        <v>0.13382999576804</v>
       </c>
       <c r="H21" s="2">
-        <v>44008</v>
+        <v>43899</v>
       </c>
       <c r="I21" s="2">
-        <v>44076</v>
+        <v>43993</v>
       </c>
       <c r="J21" s="3">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>21298</v>
+        <v>10308</v>
       </c>
       <c r="B22">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="C22">
         <v>306</v>
       </c>
       <c r="D22">
-        <v>0.00930762833</v>
+        <v>0.009612873269999999</v>
       </c>
       <c r="E22">
         <v>0.01141800027263146</v>
       </c>
       <c r="F22">
-        <v>44.94670163416492</v>
+        <v>18.60724914312514</v>
       </c>
       <c r="G22">
-        <v>0.2267357341536074</v>
+        <v>0.1877822532275477</v>
       </c>
       <c r="H22" s="2">
-        <v>44007</v>
+        <v>44036</v>
       </c>
       <c r="I22" s="2">
         <v>44076</v>
       </c>
       <c r="J22" s="3">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>20571</v>
+        <v>10401</v>
       </c>
       <c r="B23">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="C23">
         <v>306</v>
       </c>
       <c r="D23">
-        <v>0.00963395433</v>
+        <v>0.009527678159999999</v>
       </c>
       <c r="E23">
         <v>0.01141800027263146</v>
       </c>
       <c r="F23">
-        <v>36.69960908587184</v>
+        <v>19.66124029347986</v>
       </c>
       <c r="G23">
-        <v>0.1851831430294379</v>
+        <v>0.1984032290855073</v>
       </c>
       <c r="H23" s="2">
-        <v>44006</v>
+        <v>44035</v>
       </c>
       <c r="I23" s="2">
         <v>44076</v>
       </c>
       <c r="J23" s="3">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>20442</v>
+        <v>10695</v>
       </c>
       <c r="B24">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="C24">
         <v>306</v>
       </c>
       <c r="D24">
-        <v>0.009695375689999999</v>
+        <v>0.00926510585</v>
       </c>
       <c r="E24">
         <v>0.01141800027263146</v>
       </c>
       <c r="F24">
-        <v>35.2138917181524</v>
+        <v>23.0252058500435</v>
       </c>
       <c r="G24">
-        <v>0.1776748666282435</v>
+        <v>0.2323658744418406</v>
       </c>
       <c r="H24" s="2">
-        <v>44005</v>
+        <v>44027</v>
       </c>
       <c r="I24" s="2">
         <v>44076</v>
       </c>
       <c r="J24" s="3">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>20918</v>
+        <v>10711</v>
       </c>
       <c r="B25">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="C25">
         <v>306</v>
       </c>
       <c r="D25">
-        <v>0.009474595129999997</v>
+        <v>0.00925185261</v>
       </c>
       <c r="E25">
         <v>0.01141800027263146</v>
       </c>
       <c r="F25">
-        <v>40.65214877356501</v>
+        <v>23.20160761444561</v>
       </c>
       <c r="G25">
-        <v>0.2051174869180363</v>
+        <v>0.234131233380237</v>
       </c>
       <c r="H25" s="2">
-        <v>44000</v>
+        <v>44026</v>
       </c>
       <c r="I25" s="2">
         <v>44076</v>
       </c>
       <c r="J25" s="3">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>20030</v>
+        <v>10642</v>
       </c>
       <c r="B26">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="C26">
         <v>306</v>
       </c>
       <c r="D26">
-        <v>0.009895105219999999</v>
+        <v>0.009312613309999997</v>
       </c>
       <c r="E26">
         <v>0.01141800027263146</v>
       </c>
       <c r="F26">
-        <v>30.50358790420824</v>
+        <v>22.40552805632407</v>
       </c>
       <c r="G26">
-        <v>0.1539038765907601</v>
+        <v>0.2260790706697418</v>
       </c>
       <c r="H26" s="2">
-        <v>43993</v>
+        <v>44025</v>
       </c>
       <c r="I26" s="2">
         <v>44076</v>
       </c>
       <c r="J26" s="3">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>21682</v>
+        <v>10721</v>
       </c>
       <c r="B27">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="C27">
         <v>306</v>
       </c>
       <c r="D27">
-        <v>0.009140020889999998</v>
+        <v>0.009243254019999999</v>
       </c>
       <c r="E27">
         <v>0.01141800027263146</v>
       </c>
       <c r="F27">
-        <v>49.39114897421544</v>
+        <v>23.31545457446193</v>
       </c>
       <c r="G27">
-        <v>0.2492313103051853</v>
+        <v>0.2352792910295312</v>
       </c>
       <c r="H27" s="2">
-        <v>43897</v>
+        <v>44024</v>
       </c>
       <c r="I27" s="2">
         <v>44076</v>
       </c>
       <c r="J27" s="3">
-        <v>179</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>21867</v>
+        <v>10658</v>
       </c>
       <c r="B28">
-        <v>126</v>
+        <v>253</v>
       </c>
       <c r="C28">
         <v>306</v>
       </c>
       <c r="D28">
-        <v>0.009063694639999998</v>
+        <v>0.009297628339999999</v>
       </c>
       <c r="E28">
         <v>0.01141800027263146</v>
       </c>
       <c r="F28">
-        <v>51.48160126875226</v>
+        <v>22.59892405798615</v>
       </c>
       <c r="G28">
-        <v>0.2597512081046307</v>
+        <v>0.2280551399876094</v>
       </c>
       <c r="H28" s="2">
-        <v>43896</v>
+        <v>44023</v>
       </c>
       <c r="I28" s="2">
         <v>44076</v>
       </c>
       <c r="J28" s="3">
-        <v>180</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>18511</v>
+        <v>10723</v>
       </c>
       <c r="B29">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="C29">
-        <v>534</v>
+        <v>306</v>
       </c>
       <c r="D29">
-        <v>0.01070680611</v>
+        <v>0.00924165242</v>
       </c>
       <c r="E29">
-        <v>0.05640515159331073</v>
+        <v>0.01141800027263146</v>
       </c>
       <c r="F29">
-        <v>845.9220732415652</v>
+        <v>23.33697802376719</v>
       </c>
       <c r="G29">
-        <v>4.268158497857653</v>
+        <v>0.2354933678225766</v>
       </c>
       <c r="H29" s="2">
-        <v>44103</v>
+        <v>44022</v>
       </c>
       <c r="I29" s="2">
-        <v>44304</v>
+        <v>44076</v>
       </c>
       <c r="J29" s="3">
-        <v>201</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>18377</v>
+        <v>10491</v>
       </c>
       <c r="B30">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="C30">
-        <v>534</v>
+        <v>306</v>
       </c>
       <c r="D30">
-        <v>0.01078503426</v>
+        <v>0.009445496059999999</v>
       </c>
       <c r="E30">
-        <v>0.05640515159331073</v>
+        <v>0.01141800027263146</v>
       </c>
       <c r="F30">
-        <v>838.3608962342514</v>
+        <v>20.69354169471669</v>
       </c>
       <c r="G30">
-        <v>4.22994644555823</v>
+        <v>0.2088301345002588</v>
       </c>
       <c r="H30" s="2">
-        <v>44102</v>
+        <v>44021</v>
       </c>
       <c r="I30" s="2">
-        <v>44304</v>
+        <v>44076</v>
       </c>
       <c r="J30" s="3">
-        <v>202</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>18455</v>
+        <v>10694</v>
       </c>
       <c r="B31">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="C31">
-        <v>534</v>
+        <v>306</v>
       </c>
       <c r="D31">
-        <v>0.01073931859</v>
+        <v>0.009266657399999998</v>
       </c>
       <c r="E31">
-        <v>0.05640515159331073</v>
+        <v>0.01141800027263146</v>
       </c>
       <c r="F31">
-        <v>842.7629480760996</v>
+        <v>23.0064606799209</v>
       </c>
       <c r="G31">
-        <v>4.252209543893487</v>
+        <v>0.2321595349614918</v>
       </c>
       <c r="H31" s="2">
-        <v>44101</v>
+        <v>44020</v>
       </c>
       <c r="I31" s="2">
-        <v>44304</v>
+        <v>44076</v>
       </c>
       <c r="J31" s="3">
-        <v>203</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>18131</v>
+        <v>10594</v>
       </c>
       <c r="B32">
-        <v>325</v>
+        <v>249</v>
       </c>
       <c r="C32">
-        <v>534</v>
+        <v>306</v>
       </c>
       <c r="D32">
-        <v>0.01093120028</v>
+        <v>0.009351812469999998</v>
       </c>
       <c r="E32">
-        <v>0.05640515159331073</v>
+        <v>0.01141800027263146</v>
       </c>
       <c r="F32">
-        <v>824.4882112616369</v>
+        <v>21.88919358107774</v>
       </c>
       <c r="G32">
-        <v>4.160014467625392</v>
+        <v>0.2209398241527682</v>
       </c>
       <c r="H32" s="2">
-        <v>44095</v>
+        <v>44019</v>
       </c>
       <c r="I32" s="2">
-        <v>44304</v>
+        <v>44076</v>
       </c>
       <c r="J32" s="3">
-        <v>209</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>17868</v>
+        <v>10649</v>
       </c>
       <c r="B33">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="C33">
-        <v>534</v>
+        <v>306</v>
       </c>
       <c r="D33">
-        <v>0.01109172064</v>
+        <v>0.00930762833</v>
       </c>
       <c r="E33">
-        <v>0.05640515159331073</v>
+        <v>0.01141800027263146</v>
       </c>
       <c r="F33">
-        <v>809.6603842737562</v>
+        <v>22.47335081708246</v>
       </c>
       <c r="G33">
-        <v>4.085338282853718</v>
+        <v>0.2267357341536074</v>
       </c>
       <c r="H33" s="2">
-        <v>44094</v>
+        <v>44007</v>
       </c>
       <c r="I33" s="2">
-        <v>44304</v>
+        <v>44076</v>
       </c>
       <c r="J33" s="3">
-        <v>210</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>18109</v>
+        <v>10285</v>
       </c>
       <c r="B34">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="C34">
-        <v>534</v>
+        <v>306</v>
       </c>
       <c r="D34">
-        <v>0.0109443334</v>
+        <v>0.00963395433</v>
       </c>
       <c r="E34">
-        <v>0.05640515159331073</v>
+        <v>0.01141800027263146</v>
       </c>
       <c r="F34">
-        <v>823.2499566626641</v>
+        <v>18.34891251996461</v>
       </c>
       <c r="G34">
-        <v>4.153822488020215</v>
+        <v>0.1851831430294379</v>
       </c>
       <c r="H34" s="2">
-        <v>44093</v>
+        <v>44006</v>
       </c>
       <c r="I34" s="2">
-        <v>44304</v>
+        <v>44076</v>
       </c>
       <c r="J34" s="3">
-        <v>211</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>18098</v>
+        <v>10221</v>
       </c>
       <c r="B35">
-        <v>322</v>
+        <v>235</v>
       </c>
       <c r="C35">
-        <v>534</v>
+        <v>306</v>
       </c>
       <c r="D35">
-        <v>0.01095094</v>
+        <v>0.009695375689999999</v>
       </c>
       <c r="E35">
-        <v>0.05640515159331073</v>
+        <v>0.01141800027263146</v>
       </c>
       <c r="F35">
-        <v>822.6303214157377</v>
+        <v>17.6069458590762</v>
       </c>
       <c r="G35">
-        <v>4.150713234965285</v>
+        <v>0.1776748666282435</v>
       </c>
       <c r="H35" s="2">
-        <v>44092</v>
+        <v>44005</v>
       </c>
       <c r="I35" s="2">
-        <v>44304</v>
+        <v>44076</v>
       </c>
       <c r="J35" s="3">
-        <v>212</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>18075</v>
+        <v>11140</v>
       </c>
       <c r="B36">
-        <v>321</v>
+        <v>128</v>
       </c>
       <c r="C36">
-        <v>534</v>
+        <v>306</v>
       </c>
       <c r="D36">
-        <v>0.01096496401</v>
+        <v>0.008894135249999999</v>
       </c>
       <c r="E36">
-        <v>0.05640515159331073</v>
+        <v>0.01141800027263146</v>
       </c>
       <c r="F36">
-        <v>821.3313905683415</v>
+        <v>28.11585635211452</v>
       </c>
       <c r="G36">
-        <v>4.144125556807071</v>
+        <v>0.2837673311333404</v>
       </c>
       <c r="H36" s="2">
-        <v>44091</v>
+        <v>43898</v>
       </c>
       <c r="I36" s="2">
-        <v>44304</v>
+        <v>44076</v>
       </c>
       <c r="J36" s="3">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>18358</v>
+        <v>10841</v>
       </c>
       <c r="B37">
-        <v>320</v>
+        <v>127</v>
       </c>
       <c r="C37">
-        <v>534</v>
+        <v>306</v>
       </c>
       <c r="D37">
-        <v>0.01079601523</v>
+        <v>0.009140020889999998</v>
       </c>
       <c r="E37">
-        <v>0.05640515159331073</v>
+        <v>0.01141800027263146</v>
       </c>
       <c r="F37">
-        <v>837.2925253576585</v>
+        <v>24.69557448710772</v>
       </c>
       <c r="G37">
-        <v>4.22462690091173</v>
+        <v>0.2492313103051853</v>
       </c>
       <c r="H37" s="2">
-        <v>44090</v>
+        <v>43897</v>
       </c>
       <c r="I37" s="2">
-        <v>44304</v>
+        <v>44076</v>
       </c>
       <c r="J37" s="3">
-        <v>214</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>18553</v>
+        <v>8766</v>
       </c>
       <c r="B38">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="C38">
         <v>534</v>
       </c>
       <c r="D38">
-        <v>0.01068244177</v>
+        <v>0.01130451322</v>
       </c>
       <c r="E38">
         <v>0.05640515159331073</v>
       </c>
       <c r="F38">
-        <v>848.2934353518841</v>
+        <v>395.3521959804419</v>
       </c>
       <c r="G38">
-        <v>4.280174028349582</v>
+        <v>3.98961348406568</v>
       </c>
       <c r="H38" s="2">
-        <v>44089</v>
+        <v>44115</v>
       </c>
       <c r="I38" s="2">
         <v>44304</v>
       </c>
       <c r="J38" s="3">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>19162</v>
+        <v>8958</v>
       </c>
       <c r="B39">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="C39">
         <v>534</v>
       </c>
       <c r="D39">
-        <v>0.01034317284</v>
+        <v>0.01106169064</v>
       </c>
       <c r="E39">
         <v>0.05640515159331073</v>
       </c>
       <c r="F39">
-        <v>882.6396368709403</v>
+        <v>406.1867232197576</v>
       </c>
       <c r="G39">
-        <v>4.453370301922823</v>
+        <v>4.099143831535569</v>
       </c>
       <c r="H39" s="2">
-        <v>44088</v>
+        <v>44114</v>
       </c>
       <c r="I39" s="2">
         <v>44304</v>
       </c>
       <c r="J39" s="3">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>18963</v>
+        <v>9061</v>
       </c>
       <c r="B40">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C40">
         <v>534</v>
       </c>
       <c r="D40">
-        <v>0.01045111067</v>
+        <v>0.01093636544</v>
       </c>
       <c r="E40">
         <v>0.05640515159331073</v>
       </c>
       <c r="F40">
-        <v>871.4264780287415</v>
+        <v>411.9926713351486</v>
       </c>
       <c r="G40">
-        <v>4.397048540995953</v>
+        <v>4.157577433084637</v>
       </c>
       <c r="H40" s="2">
-        <v>44087</v>
+        <v>44113</v>
       </c>
       <c r="I40" s="2">
         <v>44304</v>
       </c>
       <c r="J40" s="3">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>19060</v>
+        <v>9365</v>
       </c>
       <c r="B41">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="C41">
         <v>534</v>
       </c>
       <c r="D41">
-        <v>0.01039827789</v>
+        <v>0.0105809704</v>
       </c>
       <c r="E41">
         <v>0.05640515159331073</v>
       </c>
       <c r="F41">
-        <v>876.8910127851026</v>
+        <v>429.143456875355</v>
       </c>
       <c r="G41">
-        <v>4.424470493095347</v>
+        <v>4.33081082934612</v>
       </c>
       <c r="H41" s="2">
-        <v>44086</v>
+        <v>44107</v>
       </c>
       <c r="I41" s="2">
         <v>44304</v>
       </c>
       <c r="J41" s="3">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>17385</v>
+        <v>9322</v>
       </c>
       <c r="B42">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="C42">
         <v>534</v>
       </c>
       <c r="D42">
-        <v>0.01139992854</v>
+        <v>0.01062974913</v>
       </c>
       <c r="E42">
         <v>0.05640515159331073</v>
       </c>
       <c r="F42">
-        <v>782.4158027818071</v>
+        <v>426.7183017629827</v>
       </c>
       <c r="G42">
-        <v>3.947851330418141</v>
+        <v>4.306348334611237</v>
       </c>
       <c r="H42" s="2">
-        <v>44077</v>
+        <v>44106</v>
       </c>
       <c r="I42" s="2">
         <v>44304</v>
       </c>
       <c r="J42" s="3">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>16607</v>
+        <v>9186</v>
       </c>
       <c r="B43">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="C43">
         <v>534</v>
       </c>
       <c r="D43">
-        <v>0.01193389197</v>
+        <v>0.01078736659</v>
       </c>
       <c r="E43">
         <v>0.05640515159331073</v>
       </c>
       <c r="F43">
-        <v>738.5342085643214</v>
+        <v>419.0449730404124</v>
       </c>
       <c r="G43">
-        <v>3.726467420277037</v>
+        <v>4.228815682003325</v>
       </c>
       <c r="H43" s="2">
-        <v>44076</v>
+        <v>44105</v>
       </c>
       <c r="I43" s="2">
         <v>44304</v>
       </c>
       <c r="J43" s="3">
-        <v>228</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>4622</v>
+        <v>9132</v>
       </c>
       <c r="B44">
-        <v>645</v>
+        <v>334</v>
       </c>
       <c r="C44">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="D44">
-        <v>0.04287970687</v>
+        <v>0.01085142058</v>
       </c>
       <c r="E44">
-        <v>0.04514793680392182</v>
+        <v>0.05640515159331073</v>
       </c>
       <c r="F44">
-        <v>10.48375875458665</v>
+        <v>415.9966716135536</v>
       </c>
       <c r="G44">
-        <v>0.05289751492001793</v>
+        <v>4.19795092057069</v>
       </c>
       <c r="H44" s="2">
-        <v>44415</v>
+        <v>44104</v>
       </c>
       <c r="I44" s="2">
-        <v>44446</v>
+        <v>44304</v>
       </c>
       <c r="J44" s="3">
-        <v>31</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>5057</v>
+        <v>9402</v>
       </c>
       <c r="B45">
-        <v>641</v>
+        <v>327</v>
       </c>
       <c r="C45">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="D45">
-        <v>0.03918600686</v>
+        <v>0.01054013961</v>
       </c>
       <c r="E45">
-        <v>0.04514793680392182</v>
+        <v>0.05640515159331073</v>
       </c>
       <c r="F45">
-        <v>30.14947972641265</v>
+        <v>431.2228426670875</v>
       </c>
       <c r="G45">
-        <v>0.1521443602360921</v>
+        <v>4.351461525215105</v>
       </c>
       <c r="H45" s="2">
-        <v>44411</v>
+        <v>44097</v>
       </c>
       <c r="I45" s="2">
-        <v>44446</v>
+        <v>44304</v>
       </c>
       <c r="J45" s="3">
-        <v>35</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>4969</v>
+        <v>9503</v>
       </c>
       <c r="B46">
-        <v>640</v>
+        <v>326</v>
       </c>
       <c r="C46">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="D46">
-        <v>0.03989012027</v>
+        <v>0.01042763722</v>
       </c>
       <c r="E46">
-        <v>0.04514793680392182</v>
+        <v>0.05640515159331073</v>
       </c>
       <c r="F46">
-        <v>26.12609035705753</v>
+        <v>436.9243190895719</v>
       </c>
       <c r="G46">
-        <v>0.131807487626856</v>
+        <v>4.409197731306454</v>
       </c>
       <c r="H46" s="2">
-        <v>44410</v>
+        <v>44096</v>
       </c>
       <c r="I46" s="2">
-        <v>44446</v>
+        <v>44304</v>
       </c>
       <c r="J46" s="3">
-        <v>36</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>4775</v>
+        <v>9065</v>
       </c>
       <c r="B47">
-        <v>639</v>
+        <v>325</v>
       </c>
       <c r="C47">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="D47">
-        <v>0.04150330183999999</v>
+        <v>0.01093120028</v>
       </c>
       <c r="E47">
-        <v>0.04514793680392182</v>
+        <v>0.05640515159331073</v>
       </c>
       <c r="F47">
-        <v>17.40313195272671</v>
+        <v>412.2213686551618</v>
       </c>
       <c r="G47">
-        <v>0.08781554243496847</v>
+        <v>4.160014467625392</v>
       </c>
       <c r="H47" s="2">
-        <v>44409</v>
+        <v>44095</v>
       </c>
       <c r="I47" s="2">
-        <v>44446</v>
+        <v>44304</v>
       </c>
       <c r="J47" s="3">
-        <v>37</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>4691</v>
+        <v>8934</v>
       </c>
       <c r="B48">
-        <v>638</v>
+        <v>324</v>
       </c>
       <c r="C48">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="D48">
-        <v>0.04224856636</v>
+        <v>0.01109172064</v>
       </c>
       <c r="E48">
-        <v>0.04514793680392182</v>
+        <v>0.05640515159331073</v>
       </c>
       <c r="F48">
-        <v>13.60094675243726</v>
+        <v>404.8301921368781</v>
       </c>
       <c r="G48">
-        <v>0.06862648117373471</v>
+        <v>4.085338282853718</v>
       </c>
       <c r="H48" s="2">
-        <v>44408</v>
+        <v>44094</v>
       </c>
       <c r="I48" s="2">
-        <v>44446</v>
+        <v>44304</v>
       </c>
       <c r="J48" s="3">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>4947</v>
+        <v>9054</v>
       </c>
       <c r="B49">
-        <v>637</v>
+        <v>323</v>
       </c>
       <c r="C49">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="D49">
-        <v>0.04005850848999999</v>
+        <v>0.0109443334</v>
       </c>
       <c r="E49">
-        <v>0.04514793680392182</v>
+        <v>0.05640515159331073</v>
       </c>
       <c r="F49">
-        <v>25.17740186897127</v>
+        <v>411.6022479222354</v>
       </c>
       <c r="G49">
-        <v>0.1270498704461831</v>
+        <v>4.153822488020215</v>
       </c>
       <c r="H49" s="2">
-        <v>44407</v>
+        <v>44093</v>
       </c>
       <c r="I49" s="2">
-        <v>44446</v>
+        <v>44304</v>
       </c>
       <c r="J49" s="3">
-        <v>39</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>4947</v>
+        <v>9049</v>
       </c>
       <c r="B50">
-        <v>636</v>
+        <v>322</v>
       </c>
       <c r="C50">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="D50">
-        <v>0.04005958956999999</v>
+        <v>0.01095094</v>
       </c>
       <c r="E50">
-        <v>0.04514793680392182</v>
+        <v>0.05640515159331073</v>
       </c>
       <c r="F50">
-        <v>25.17205376621127</v>
+        <v>411.3151607078689</v>
       </c>
       <c r="G50">
-        <v>0.1270194549804478</v>
+        <v>4.150713234965285</v>
       </c>
       <c r="H50" s="2">
-        <v>44406</v>
+        <v>44092</v>
       </c>
       <c r="I50" s="2">
-        <v>44446</v>
+        <v>44304</v>
       </c>
       <c r="J50" s="3">
-        <v>40</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>5018</v>
+        <v>9037</v>
       </c>
       <c r="B51">
-        <v>635</v>
+        <v>321</v>
       </c>
       <c r="C51">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="D51">
-        <v>0.03949606661</v>
+        <v>0.01096496401</v>
       </c>
       <c r="E51">
-        <v>0.04514793680392182</v>
+        <v>0.05640515159331073</v>
       </c>
       <c r="F51">
-        <v>28.36108463309969</v>
+        <v>410.6429751903791</v>
       </c>
       <c r="G51">
-        <v>0.1430995711479488</v>
+        <v>4.144125556807071</v>
       </c>
       <c r="H51" s="2">
-        <v>44405</v>
+        <v>44091</v>
       </c>
       <c r="I51" s="2">
-        <v>44446</v>
+        <v>44304</v>
       </c>
       <c r="J51" s="3">
-        <v>41</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>5317</v>
+        <v>9179</v>
       </c>
       <c r="B52">
-        <v>634</v>
+        <v>320</v>
       </c>
       <c r="C52">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="D52">
-        <v>0.03727857133</v>
+        <v>0.01079601523</v>
       </c>
       <c r="E52">
-        <v>0.04514793680392182</v>
+        <v>0.05640515159331073</v>
       </c>
       <c r="F52">
-        <v>41.84141622484233</v>
+        <v>418.6462626788293</v>
       </c>
       <c r="G52">
-        <v>0.211096219440924</v>
+        <v>4.22462690091173</v>
       </c>
       <c r="H52" s="2">
-        <v>44404</v>
+        <v>44090</v>
       </c>
       <c r="I52" s="2">
-        <v>44446</v>
+        <v>44304</v>
       </c>
       <c r="J52" s="3">
-        <v>42</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>5596</v>
+        <v>9276</v>
       </c>
       <c r="B53">
-        <v>633</v>
+        <v>319</v>
       </c>
       <c r="C53">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="D53">
-        <v>0.03541640101999999</v>
+        <v>0.01068244177</v>
       </c>
       <c r="E53">
-        <v>0.04514793680392182</v>
+        <v>0.05640515159331073</v>
       </c>
       <c r="F53">
-        <v>54.45767424682652</v>
+        <v>424.1238563210304</v>
       </c>
       <c r="G53">
-        <v>0.2747748360548077</v>
+        <v>4.280174028349582</v>
       </c>
       <c r="H53" s="2">
-        <v>44403</v>
+        <v>44089</v>
       </c>
       <c r="I53" s="2">
-        <v>44446</v>
+        <v>44304</v>
       </c>
       <c r="J53" s="3">
-        <v>43</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>5779</v>
+        <v>9581</v>
       </c>
       <c r="B54">
-        <v>632</v>
+        <v>318</v>
       </c>
       <c r="C54">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="D54">
-        <v>0.03429577151</v>
+        <v>0.01034317284</v>
       </c>
       <c r="E54">
-        <v>0.04514793680392182</v>
+        <v>0.05640515159331073</v>
       </c>
       <c r="F54">
-        <v>62.71466323357421</v>
+        <v>441.3198184354702</v>
       </c>
       <c r="G54">
-        <v>0.3164286679119475</v>
+        <v>4.453370301922823</v>
       </c>
       <c r="H54" s="2">
-        <v>44402</v>
+        <v>44088</v>
       </c>
       <c r="I54" s="2">
-        <v>44446</v>
+        <v>44304</v>
       </c>
       <c r="J54" s="3">
-        <v>44</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>5886</v>
+        <v>9481</v>
       </c>
       <c r="B55">
-        <v>631</v>
+        <v>317</v>
       </c>
       <c r="C55">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="D55">
-        <v>0.0336677341</v>
+        <v>0.01045111067</v>
       </c>
       <c r="E55">
-        <v>0.04514793680392182</v>
+        <v>0.05640515159331073</v>
       </c>
       <c r="F55">
-        <v>67.57247311528383</v>
+        <v>435.6902619939091</v>
       </c>
       <c r="G55">
-        <v>0.3409853086585302</v>
+        <v>4.397048540995953</v>
       </c>
       <c r="H55" s="2">
-        <v>44401</v>
+        <v>44087</v>
       </c>
       <c r="I55" s="2">
-        <v>44446</v>
+        <v>44304</v>
       </c>
       <c r="J55" s="3">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>6132</v>
+        <v>8692</v>
       </c>
       <c r="B56">
-        <v>630</v>
+        <v>307</v>
       </c>
       <c r="C56">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="D56">
-        <v>0.03231986758</v>
+        <v>0.01139992854</v>
       </c>
       <c r="E56">
-        <v>0.04514793680392182</v>
+        <v>0.05640515159331073</v>
       </c>
       <c r="F56">
-        <v>78.66172048108858</v>
+        <v>391.1853987793769</v>
       </c>
       <c r="G56">
-        <v>0.3969097086233115</v>
+        <v>3.947851330418141</v>
       </c>
       <c r="H56" s="2">
-        <v>44400</v>
+        <v>44077</v>
       </c>
       <c r="I56" s="2">
-        <v>44446</v>
+        <v>44304</v>
       </c>
       <c r="J56" s="3">
-        <v>46</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>5779</v>
+        <v>8303</v>
       </c>
       <c r="B57">
-        <v>619</v>
+        <v>306</v>
       </c>
       <c r="C57">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="D57">
-        <v>0.03429325899999999</v>
+        <v>0.01193389197</v>
       </c>
       <c r="E57">
-        <v>0.04514793680392182</v>
+        <v>0.05640515159331073</v>
       </c>
       <c r="F57">
-        <v>62.72918302886423</v>
+        <v>369.2448686523491</v>
       </c>
       <c r="G57">
-        <v>0.3165251166102885</v>
+        <v>3.726467420277037</v>
       </c>
       <c r="H57" s="2">
-        <v>44389</v>
+        <v>44076</v>
       </c>
       <c r="I57" s="2">
-        <v>44446</v>
+        <v>44304</v>
       </c>
       <c r="J57" s="3">
-        <v>57</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>5847</v>
+        <v>2311</v>
       </c>
       <c r="B58">
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="C58">
         <v>676</v>
       </c>
       <c r="D58">
-        <v>0.03389597211</v>
+        <v>0.04287970687</v>
       </c>
       <c r="E58">
         <v>0.04514793680392182</v>
       </c>
       <c r="F58">
-        <v>65.79023756536088</v>
+        <v>5.241879377293323</v>
       </c>
       <c r="G58">
-        <v>0.3319558045837034</v>
+        <v>0.05289751492001793</v>
       </c>
       <c r="H58" s="2">
-        <v>44385</v>
+        <v>44415</v>
       </c>
       <c r="I58" s="2">
         <v>44446</v>
       </c>
       <c r="J58" s="3">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>5860</v>
+        <v>2492</v>
       </c>
       <c r="B59">
-        <v>610</v>
+        <v>643</v>
       </c>
       <c r="C59">
         <v>676</v>
       </c>
       <c r="D59">
-        <v>0.03382032654</v>
+        <v>0.03976289316999999</v>
       </c>
       <c r="E59">
         <v>0.04514793680392182</v>
       </c>
       <c r="F59">
-        <v>66.37979614658185</v>
+        <v>13.41952873573318</v>
       </c>
       <c r="G59">
-        <v>0.334934976175479</v>
+        <v>0.1354288685910987</v>
       </c>
       <c r="H59" s="2">
-        <v>44380</v>
+        <v>44413</v>
       </c>
       <c r="I59" s="2">
         <v>44446</v>
       </c>
       <c r="J59" s="3">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>5909</v>
+        <v>2591</v>
       </c>
       <c r="B60">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="C60">
         <v>676</v>
       </c>
       <c r="D60">
-        <v>0.03353583233</v>
+        <v>0.03824524703999999</v>
       </c>
       <c r="E60">
         <v>0.04514793680392182</v>
       </c>
       <c r="F60">
-        <v>68.61592533640402</v>
+        <v>17.88486917832145</v>
       </c>
       <c r="G60">
-        <v>0.3462596174639754</v>
+        <v>0.180484904613178</v>
       </c>
       <c r="H60" s="2">
-        <v>44379</v>
+        <v>44412</v>
       </c>
       <c r="I60" s="2">
         <v>44446</v>
       </c>
       <c r="J60" s="3">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>5649</v>
+        <v>2528</v>
       </c>
       <c r="B61">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="C61">
         <v>676</v>
       </c>
       <c r="D61">
-        <v>0.035080045</v>
+        <v>0.03918600686</v>
       </c>
       <c r="E61">
         <v>0.04514793680392182</v>
       </c>
       <c r="F61">
-        <v>56.87352080035436</v>
+        <v>15.07175889823436</v>
       </c>
       <c r="G61">
-        <v>0.2869976878285596</v>
+        <v>0.1521443602360921</v>
       </c>
       <c r="H61" s="2">
-        <v>44378</v>
+        <v>44411</v>
       </c>
       <c r="I61" s="2">
         <v>44446</v>
       </c>
       <c r="J61" s="3">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>5513</v>
+        <v>2484</v>
       </c>
       <c r="B62">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="C62">
         <v>676</v>
       </c>
       <c r="D62">
-        <v>0.03594763172</v>
+        <v>0.03989012027</v>
       </c>
       <c r="E62">
         <v>0.04514793680392182</v>
       </c>
       <c r="F62">
-        <v>50.72128192766099</v>
+        <v>13.06041627026181</v>
       </c>
       <c r="G62">
-        <v>0.2559363341536376</v>
+        <v>0.131807487626856</v>
       </c>
       <c r="H62" s="2">
-        <v>44377</v>
+        <v>44410</v>
       </c>
       <c r="I62" s="2">
         <v>44446</v>
       </c>
       <c r="J62" s="3">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>5739</v>
+        <v>2387</v>
       </c>
       <c r="B63">
-        <v>606</v>
+        <v>639</v>
       </c>
       <c r="C63">
         <v>676</v>
       </c>
       <c r="D63">
-        <v>0.03452938488999999</v>
+        <v>0.04150330183999999</v>
       </c>
       <c r="E63">
         <v>0.04514793680392182</v>
       </c>
       <c r="F63">
-        <v>60.93986943399734</v>
+        <v>8.699743658881397</v>
       </c>
       <c r="G63">
-        <v>0.3075221857484363</v>
+        <v>0.08781554243496847</v>
       </c>
       <c r="H63" s="2">
-        <v>44376</v>
+        <v>44409</v>
       </c>
       <c r="I63" s="2">
         <v>44446</v>
       </c>
       <c r="J63" s="3">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>5705</v>
+        <v>2345</v>
       </c>
       <c r="B64">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="C64">
         <v>676</v>
       </c>
       <c r="D64">
-        <v>0.03473719248999999</v>
+        <v>0.04224856636</v>
       </c>
       <c r="E64">
         <v>0.04514793680392182</v>
       </c>
       <c r="F64">
-        <v>59.39329631092401</v>
+        <v>6.799023690996671</v>
       </c>
       <c r="G64">
-        <v>0.2997002223745868</v>
+        <v>0.06862648117373471</v>
       </c>
       <c r="H64" s="2">
-        <v>44375</v>
+        <v>44408</v>
       </c>
       <c r="I64" s="2">
         <v>44446</v>
       </c>
       <c r="J64" s="3">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>5197</v>
+        <v>2473</v>
       </c>
       <c r="B65">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="C65">
         <v>676</v>
       </c>
       <c r="D65">
-        <v>0.03813106297</v>
+        <v>0.04005850848999999</v>
       </c>
       <c r="E65">
         <v>0.04514793680392182</v>
       </c>
       <c r="F65">
-        <v>36.4666933148917</v>
+        <v>12.58615622032868</v>
       </c>
       <c r="G65">
-        <v>0.1840198852951573</v>
+        <v>0.1270498704461831</v>
       </c>
       <c r="H65" s="2">
-        <v>44365</v>
+        <v>44407</v>
       </c>
       <c r="I65" s="2">
         <v>44446</v>
       </c>
       <c r="J65" s="3">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>5163</v>
+        <v>2473</v>
       </c>
       <c r="B66">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="C66">
         <v>676</v>
       </c>
       <c r="D66">
-        <v>0.03838734899999999</v>
+        <v>0.04005958956999999</v>
       </c>
       <c r="E66">
         <v>0.04514793680392182</v>
       </c>
       <c r="F66">
-        <v>34.90491483164838</v>
+        <v>12.58348270948868</v>
       </c>
       <c r="G66">
-        <v>0.1761149956961556</v>
+        <v>0.1270194549804478</v>
       </c>
       <c r="H66" s="2">
-        <v>44364</v>
+        <v>44406</v>
       </c>
       <c r="I66" s="2">
         <v>44446</v>
       </c>
       <c r="J66" s="3">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>4932</v>
+        <v>2509</v>
       </c>
       <c r="B67">
-        <v>593</v>
+        <v>635</v>
       </c>
       <c r="C67">
         <v>676</v>
       </c>
       <c r="D67">
-        <v>0.0401839438</v>
+        <v>0.03949606661</v>
       </c>
       <c r="E67">
         <v>0.04514793680392182</v>
       </c>
       <c r="F67">
-        <v>24.48241349534242</v>
+        <v>14.18054231654984</v>
       </c>
       <c r="G67">
-        <v>0.1235317525982063</v>
+        <v>0.1430995711479488</v>
       </c>
       <c r="H67" s="2">
-        <v>44363</v>
+        <v>44405</v>
       </c>
       <c r="I67" s="2">
         <v>44446</v>
       </c>
       <c r="J67" s="3">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>4886</v>
+        <v>2658</v>
       </c>
       <c r="B68">
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="C68">
         <v>676</v>
       </c>
       <c r="D68">
-        <v>0.04055679627999999</v>
+        <v>0.03727857133</v>
       </c>
       <c r="E68">
         <v>0.04514793680392182</v>
       </c>
       <c r="F68">
-        <v>22.43231259988203</v>
+        <v>20.9167734296842</v>
       </c>
       <c r="G68">
-        <v>0.1132027414647117</v>
+        <v>0.211096219440924</v>
       </c>
       <c r="H68" s="2">
-        <v>44362</v>
+        <v>44404</v>
       </c>
       <c r="I68" s="2">
         <v>44446</v>
       </c>
       <c r="J68" s="3">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>5074</v>
+        <v>2798</v>
       </c>
       <c r="B69">
-        <v>591</v>
+        <v>633</v>
       </c>
       <c r="C69">
         <v>676</v>
       </c>
       <c r="D69">
-        <v>0.03905958055999999</v>
+        <v>0.03541640101999999</v>
       </c>
       <c r="E69">
         <v>0.04514793680392182</v>
       </c>
       <c r="F69">
-        <v>30.89231958165933</v>
+        <v>27.22883712341326</v>
       </c>
       <c r="G69">
-        <v>0.1558735694708604</v>
+        <v>0.2747748360548077</v>
       </c>
       <c r="H69" s="2">
-        <v>44361</v>
+        <v>44403</v>
       </c>
       <c r="I69" s="2">
         <v>44446</v>
       </c>
       <c r="J69" s="3">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>5570</v>
+        <v>2889</v>
       </c>
       <c r="B70">
-        <v>590</v>
+        <v>632</v>
       </c>
       <c r="C70">
         <v>676</v>
       </c>
       <c r="D70">
-        <v>0.03558166611999999</v>
+        <v>0.03429577151</v>
       </c>
       <c r="E70">
         <v>0.04514793680392182</v>
       </c>
       <c r="F70">
-        <v>53.28412770944455</v>
+        <v>31.35190553414014</v>
       </c>
       <c r="G70">
-        <v>0.268853927515911</v>
+        <v>0.3164286679119475</v>
       </c>
       <c r="H70" s="2">
-        <v>44360</v>
+        <v>44402</v>
       </c>
       <c r="I70" s="2">
         <v>44446</v>
       </c>
       <c r="J70" s="3">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>5303</v>
+        <v>2943</v>
       </c>
       <c r="B71">
-        <v>589</v>
+        <v>631</v>
       </c>
       <c r="C71">
         <v>676</v>
       </c>
       <c r="D71">
-        <v>0.03736931197999999</v>
+        <v>0.0336677341</v>
       </c>
       <c r="E71">
         <v>0.04514793680392182</v>
       </c>
       <c r="F71">
-        <v>41.25004744125744</v>
+        <v>33.78623655764191</v>
       </c>
       <c r="G71">
-        <v>0.2081554198291082</v>
+        <v>0.3409853086585302</v>
       </c>
       <c r="H71" s="2">
-        <v>44359</v>
+        <v>44401</v>
       </c>
       <c r="I71" s="2">
         <v>44446</v>
       </c>
       <c r="J71" s="3">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>5398</v>
+        <v>2938</v>
       </c>
       <c r="B72">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="C72">
         <v>676</v>
       </c>
       <c r="D72">
-        <v>0.03671450783</v>
+        <v>0.03372384015</v>
       </c>
       <c r="E72">
         <v>0.04514793680392182</v>
       </c>
       <c r="F72">
-        <v>45.52364960122998</v>
+        <v>33.56399596922231</v>
       </c>
       <c r="G72">
-        <v>0.2297029014516907</v>
+        <v>0.3387543234432577</v>
       </c>
       <c r="H72" s="2">
-        <v>44358</v>
+        <v>44383</v>
       </c>
       <c r="I72" s="2">
         <v>44446</v>
       </c>
       <c r="J72" s="3">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>5575</v>
+        <v>2805</v>
       </c>
       <c r="B73">
-        <v>583</v>
+        <v>612</v>
       </c>
       <c r="C73">
         <v>676</v>
       </c>
       <c r="D73">
-        <v>0.03555158606999999</v>
+        <v>0.03532341812999999</v>
       </c>
       <c r="E73">
         <v>0.04514793680392182</v>
       </c>
       <c r="F73">
-        <v>53.49965534161416</v>
+        <v>27.55777488035072</v>
       </c>
       <c r="G73">
-        <v>0.2699274995784127</v>
+        <v>0.2781304639818509</v>
       </c>
       <c r="H73" s="2">
-        <v>44353</v>
+        <v>44382</v>
       </c>
       <c r="I73" s="2">
         <v>44446</v>
       </c>
       <c r="J73" s="3">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>5376</v>
+        <v>2855</v>
       </c>
       <c r="B74">
-        <v>582</v>
+        <v>611</v>
       </c>
       <c r="C74">
         <v>676</v>
       </c>
       <c r="D74">
-        <v>0.03686597914999999</v>
+        <v>0.03470378912</v>
       </c>
       <c r="E74">
         <v>0.04514793680392182</v>
       </c>
       <c r="F74">
-        <v>44.52380434748373</v>
+        <v>29.81804163759679</v>
       </c>
       <c r="G74">
-        <v>0.2246504187566609</v>
+        <v>0.3009512202776379</v>
       </c>
       <c r="H74" s="2">
-        <v>44352</v>
+        <v>44381</v>
       </c>
       <c r="I74" s="2">
         <v>44446</v>
       </c>
       <c r="J74" s="3">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>5044</v>
+        <v>2930</v>
       </c>
       <c r="B75">
-        <v>581</v>
+        <v>610</v>
       </c>
       <c r="C75">
         <v>676</v>
       </c>
       <c r="D75">
-        <v>0.03928602678</v>
+        <v>0.03382032654</v>
       </c>
       <c r="E75">
         <v>0.04514793680392182</v>
       </c>
       <c r="F75">
-        <v>29.56747416066166</v>
+        <v>33.18989807329093</v>
       </c>
       <c r="G75">
-        <v>0.1492110682698522</v>
+        <v>0.334934976175479</v>
       </c>
       <c r="H75" s="2">
-        <v>44351</v>
+        <v>44380</v>
       </c>
       <c r="I75" s="2">
         <v>44446</v>
       </c>
       <c r="J75" s="3">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>5270</v>
+        <v>2954</v>
       </c>
       <c r="B76">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="C76">
         <v>676</v>
       </c>
       <c r="D76">
-        <v>0.03760624868</v>
+        <v>0.03353583233</v>
       </c>
       <c r="E76">
         <v>0.04514793680392182</v>
       </c>
       <c r="F76">
-        <v>39.744696413068</v>
+        <v>34.30215661596505</v>
       </c>
       <c r="G76">
-        <v>0.200543483826205</v>
+        <v>0.3462596174639754</v>
       </c>
       <c r="H76" s="2">
-        <v>44350</v>
+        <v>44379</v>
       </c>
       <c r="I76" s="2">
         <v>44446</v>
       </c>
       <c r="J76" s="3">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <v>5551</v>
+        <v>2824</v>
       </c>
       <c r="B77">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="C77">
         <v>676</v>
       </c>
       <c r="D77">
-        <v>0.03569745178999999</v>
+        <v>0.035080045</v>
       </c>
       <c r="E77">
         <v>0.04514793680392182</v>
       </c>
       <c r="F77">
-        <v>52.45964231228005</v>
+        <v>28.43172645427522</v>
       </c>
       <c r="G77">
-        <v>0.2647383647862844</v>
+        <v>0.2869976878285596</v>
       </c>
       <c r="H77" s="2">
-        <v>44345</v>
+        <v>44378</v>
       </c>
       <c r="I77" s="2">
         <v>44446</v>
       </c>
       <c r="J77" s="3">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
-        <v>5138</v>
+        <v>2756</v>
       </c>
       <c r="B78">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="C78">
         <v>676</v>
       </c>
       <c r="D78">
-        <v>0.03856851998999999</v>
+        <v>0.03594763172</v>
       </c>
       <c r="E78">
         <v>0.04514793680392182</v>
       </c>
       <c r="F78">
-        <v>33.80504358993033</v>
+        <v>25.35604081128854</v>
       </c>
       <c r="G78">
-        <v>0.1705903367727808</v>
+        <v>0.2559363341536376</v>
       </c>
       <c r="H78" s="2">
-        <v>44344</v>
+        <v>44377</v>
       </c>
       <c r="I78" s="2">
         <v>44446</v>
       </c>
       <c r="J78" s="3">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
-        <v>4521</v>
+        <v>2763</v>
       </c>
       <c r="B79">
-        <v>647</v>
+        <v>596</v>
       </c>
       <c r="C79">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D79">
-        <v>0.04383815435999999</v>
+        <v>0.03585630048</v>
       </c>
       <c r="E79">
-        <v>0.04583660648794216</v>
+        <v>0.04514793680392182</v>
       </c>
       <c r="F79">
-        <v>9.035002070426543</v>
+        <v>25.67279116299598</v>
       </c>
       <c r="G79">
-        <v>0.04558704984545714</v>
+        <v>0.2591353876316529</v>
       </c>
       <c r="H79" s="2">
-        <v>44417</v>
+        <v>44366</v>
       </c>
       <c r="I79" s="2">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="J79" s="3">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
-        <v>3452</v>
+        <v>2598</v>
       </c>
       <c r="B80">
-        <v>714</v>
+        <v>595</v>
       </c>
       <c r="C80">
-        <v>746</v>
+        <v>676</v>
       </c>
       <c r="D80">
-        <v>0.05740528793999999</v>
+        <v>0.03813106297</v>
       </c>
       <c r="E80">
-        <v>0.06117688510234075</v>
+        <v>0.04514793680392182</v>
       </c>
       <c r="F80">
-        <v>13.01955340440031</v>
+        <v>18.22983822052889</v>
       </c>
       <c r="G80">
-        <v>0.06570121495223291</v>
+        <v>0.1840198852951573</v>
       </c>
       <c r="H80" s="2">
-        <v>44484</v>
+        <v>44365</v>
       </c>
       <c r="I80" s="2">
-        <v>44516</v>
+        <v>44446</v>
       </c>
       <c r="J80" s="3">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
-        <v>3451</v>
+        <v>2581</v>
       </c>
       <c r="B81">
-        <v>713</v>
+        <v>594</v>
       </c>
       <c r="C81">
-        <v>746</v>
+        <v>676</v>
       </c>
       <c r="D81">
-        <v>0.05742820083</v>
+        <v>0.03838734899999999</v>
       </c>
       <c r="E81">
-        <v>0.06117688510234075</v>
+        <v>0.04514793680392182</v>
       </c>
       <c r="F81">
-        <v>12.93670942384795</v>
+        <v>17.44907712192223</v>
       </c>
       <c r="G81">
-        <v>0.06527601802183702</v>
+        <v>0.1761149956961556</v>
       </c>
       <c r="H81" s="2">
-        <v>44483</v>
+        <v>44364</v>
       </c>
       <c r="I81" s="2">
-        <v>44516</v>
+        <v>44446</v>
       </c>
       <c r="J81" s="3">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
-        <v>3535</v>
+        <v>2466</v>
       </c>
       <c r="B82">
-        <v>712</v>
+        <v>593</v>
       </c>
       <c r="C82">
-        <v>746</v>
+        <v>676</v>
       </c>
       <c r="D82">
-        <v>0.05605290691</v>
+        <v>0.0401839438</v>
       </c>
       <c r="E82">
-        <v>0.06117688510234075</v>
+        <v>0.04514793680392182</v>
       </c>
       <c r="F82">
-        <v>18.11326290992457</v>
+        <v>12.24120674767121</v>
       </c>
       <c r="G82">
-        <v>0.09141324642748594</v>
+        <v>0.1235317525982063</v>
       </c>
       <c r="H82" s="2">
-        <v>44482</v>
+        <v>44363</v>
       </c>
       <c r="I82" s="2">
-        <v>44516</v>
+        <v>44446</v>
       </c>
       <c r="J82" s="3">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
-        <v>3445</v>
+        <v>2443</v>
       </c>
       <c r="B83">
-        <v>711</v>
+        <v>592</v>
       </c>
       <c r="C83">
-        <v>746</v>
+        <v>676</v>
       </c>
       <c r="D83">
-        <v>0.05752882134999999</v>
+        <v>0.04055679627999999</v>
       </c>
       <c r="E83">
-        <v>0.06117688510234075</v>
+        <v>0.04514793680392182</v>
       </c>
       <c r="F83">
-        <v>12.56757962681394</v>
+        <v>11.21615629994101</v>
       </c>
       <c r="G83">
-        <v>0.06341280190926013</v>
+        <v>0.1132027414647117</v>
       </c>
       <c r="H83" s="2">
-        <v>44481</v>
+        <v>44362</v>
       </c>
       <c r="I83" s="2">
-        <v>44516</v>
+        <v>44446</v>
       </c>
       <c r="J83" s="3">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
-        <v>3622</v>
+        <v>2537</v>
       </c>
       <c r="B84">
-        <v>710</v>
+        <v>591</v>
       </c>
       <c r="C84">
-        <v>746</v>
+        <v>676</v>
       </c>
       <c r="D84">
-        <v>0.05471366900999999</v>
+        <v>0.03905958055999999</v>
       </c>
       <c r="E84">
-        <v>0.06117688510234075</v>
+        <v>0.04514793680392182</v>
       </c>
       <c r="F84">
-        <v>23.40976868645824</v>
+        <v>15.44615979082967</v>
       </c>
       <c r="G84">
-        <v>0.11812799633597</v>
+        <v>0.1558735694708604</v>
       </c>
       <c r="H84" s="2">
-        <v>44480</v>
+        <v>44361</v>
       </c>
       <c r="I84" s="2">
-        <v>44516</v>
+        <v>44446</v>
       </c>
       <c r="J84" s="3">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
-        <v>3603</v>
+        <v>2765</v>
       </c>
       <c r="B85">
-        <v>709</v>
+        <v>584</v>
       </c>
       <c r="C85">
-        <v>746</v>
+        <v>676</v>
       </c>
       <c r="D85">
-        <v>0.05500466972</v>
+        <v>0.03583210630999999</v>
       </c>
       <c r="E85">
-        <v>0.06117688510234075</v>
+        <v>0.04514793680392182</v>
       </c>
       <c r="F85">
-        <v>22.23849202257375</v>
+        <v>25.75827131569384</v>
       </c>
       <c r="G85">
-        <v>0.1122125705646499</v>
+        <v>0.2599855675054741</v>
       </c>
       <c r="H85" s="2">
-        <v>44479</v>
+        <v>44354</v>
       </c>
       <c r="I85" s="2">
-        <v>44516</v>
+        <v>44446</v>
       </c>
       <c r="J85" s="3">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>3669</v>
+        <v>2787</v>
       </c>
       <c r="B86">
-        <v>708</v>
+        <v>583</v>
       </c>
       <c r="C86">
-        <v>746</v>
+        <v>676</v>
       </c>
       <c r="D86">
-        <v>0.05400962566999999</v>
+        <v>0.03555158606999999</v>
       </c>
       <c r="E86">
-        <v>0.06117688510234075</v>
+        <v>0.04514793680392182</v>
       </c>
       <c r="F86">
-        <v>26.29667485725826</v>
+        <v>26.74502949544012</v>
       </c>
       <c r="G86">
-        <v>0.132703371731048</v>
+        <v>0.2699274995784127</v>
       </c>
       <c r="H86" s="2">
-        <v>44478</v>
+        <v>44353</v>
       </c>
       <c r="I86" s="2">
-        <v>44516</v>
+        <v>44446</v>
       </c>
       <c r="J86" s="3">
-        <v>38</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>3681</v>
+        <v>2688</v>
       </c>
       <c r="B87">
-        <v>707</v>
+        <v>582</v>
       </c>
       <c r="C87">
-        <v>746</v>
+        <v>676</v>
       </c>
       <c r="D87">
-        <v>0.05383900521999999</v>
+        <v>0.03686597914999999</v>
       </c>
       <c r="E87">
-        <v>0.06117688510234075</v>
+        <v>0.04514793680392182</v>
       </c>
       <c r="F87">
-        <v>27.01073584689634</v>
+        <v>22.26190217374187</v>
       </c>
       <c r="G87">
-        <v>0.1362930063874008</v>
+        <v>0.2246504187566609</v>
       </c>
       <c r="H87" s="2">
-        <v>44477</v>
+        <v>44352</v>
       </c>
       <c r="I87" s="2">
-        <v>44516</v>
+        <v>44446</v>
       </c>
       <c r="J87" s="3">
-        <v>39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
-        <v>3579</v>
+        <v>2260</v>
       </c>
       <c r="B88">
-        <v>706</v>
+        <v>647</v>
       </c>
       <c r="C88">
-        <v>746</v>
+        <v>677</v>
       </c>
       <c r="D88">
-        <v>0.055370315</v>
+        <v>0.04383815435999999</v>
       </c>
       <c r="E88">
-        <v>0.06117688510234075</v>
+        <v>0.04556490221685919</v>
       </c>
       <c r="F88">
-        <v>20.78171439627757</v>
+        <v>3.902450156501797</v>
       </c>
       <c r="G88">
-        <v>0.104867926114214</v>
+        <v>0.03938915499678908</v>
       </c>
       <c r="H88" s="2">
-        <v>44476</v>
+        <v>44417</v>
       </c>
       <c r="I88" s="2">
-        <v>44516</v>
+        <v>44447</v>
       </c>
       <c r="J88" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
-        <v>3846</v>
+        <v>1726</v>
       </c>
       <c r="B89">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="C89">
         <v>746</v>
       </c>
       <c r="D89">
-        <v>0.05152346198999999</v>
+        <v>0.05740528793999999</v>
       </c>
       <c r="E89">
         <v>0.06117688510234075</v>
       </c>
       <c r="F89">
-        <v>37.12706529006257</v>
+        <v>6.509776702200153</v>
       </c>
       <c r="G89">
-        <v>0.1873597530036775</v>
+        <v>0.06570121495223291</v>
       </c>
       <c r="H89" s="2">
-        <v>44475</v>
+        <v>44484</v>
       </c>
       <c r="I89" s="2">
         <v>44516</v>
       </c>
       <c r="J89" s="3">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
-        <v>4022</v>
+        <v>1725</v>
       </c>
       <c r="B90">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="C90">
         <v>746</v>
       </c>
       <c r="D90">
-        <v>0.04927415492999999</v>
+        <v>0.05742820083</v>
       </c>
       <c r="E90">
         <v>0.06117688510234075</v>
       </c>
       <c r="F90">
-        <v>47.87278075315454</v>
+        <v>6.466480369787805</v>
       </c>
       <c r="G90">
-        <v>0.2415613253895486</v>
+        <v>0.06527601802183702</v>
       </c>
       <c r="H90" s="2">
-        <v>44474</v>
+        <v>44483</v>
       </c>
       <c r="I90" s="2">
         <v>44516</v>
       </c>
       <c r="J90" s="3">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>4107</v>
+        <v>1767</v>
       </c>
       <c r="B91">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="C91">
         <v>746</v>
       </c>
       <c r="D91">
-        <v>0.04824821000999999</v>
+        <v>0.05605290691</v>
       </c>
       <c r="E91">
         <v>0.06117688510234075</v>
       </c>
       <c r="F91">
-        <v>53.0980686042435</v>
+        <v>9.054069465866116</v>
       </c>
       <c r="G91">
-        <v>0.2679617562944023</v>
+        <v>0.09141324642748594</v>
       </c>
       <c r="H91" s="2">
-        <v>44473</v>
+        <v>44482</v>
       </c>
       <c r="I91" s="2">
         <v>44516</v>
       </c>
       <c r="J91" s="3">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>4156</v>
+        <v>1722</v>
       </c>
       <c r="B92">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="C92">
         <v>746</v>
       </c>
       <c r="D92">
-        <v>0.04768252488999999</v>
+        <v>0.05752882134999999</v>
       </c>
       <c r="E92">
         <v>0.06117688510234075</v>
       </c>
       <c r="F92">
-        <v>56.0825610424882</v>
+        <v>6.281965781530799</v>
       </c>
       <c r="G92">
-        <v>0.283004313288175</v>
+        <v>0.06341280190926013</v>
       </c>
       <c r="H92" s="2">
-        <v>44472</v>
+        <v>44481</v>
       </c>
       <c r="I92" s="2">
         <v>44516</v>
       </c>
       <c r="J92" s="3">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
-        <v>4112</v>
+        <v>1811</v>
       </c>
       <c r="B93">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="C93">
         <v>746</v>
       </c>
       <c r="D93">
-        <v>0.0481897416</v>
+        <v>0.05471366900999999</v>
       </c>
       <c r="E93">
         <v>0.06117688510234075</v>
       </c>
       <c r="F93">
-        <v>53.4031340816252</v>
+        <v>11.70488434322912</v>
       </c>
       <c r="G93">
-        <v>0.2695001689392906</v>
+        <v>0.11812799633597</v>
       </c>
       <c r="H93" s="2">
-        <v>44471</v>
+        <v>44480</v>
       </c>
       <c r="I93" s="2">
         <v>44516</v>
       </c>
       <c r="J93" s="3">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
-        <v>4697</v>
+        <v>1801</v>
       </c>
       <c r="B94">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="C94">
         <v>746</v>
       </c>
       <c r="D94">
-        <v>0.04218949734999999</v>
+        <v>0.05500466972</v>
       </c>
       <c r="E94">
         <v>0.06117688510234075</v>
       </c>
       <c r="F94">
-        <v>89.18376027274455</v>
+        <v>11.1161599035957</v>
       </c>
       <c r="G94">
-        <v>0.4500501059499056</v>
+        <v>0.1122125705646499</v>
       </c>
       <c r="H94" s="2">
-        <v>44467</v>
+        <v>44479</v>
       </c>
       <c r="I94" s="2">
         <v>44516</v>
       </c>
       <c r="J94" s="3">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
-        <v>4587</v>
+        <v>1834</v>
       </c>
       <c r="B95">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="C95">
         <v>746</v>
       </c>
       <c r="D95">
-        <v>0.0432040609</v>
+        <v>0.05400962566999999</v>
       </c>
       <c r="E95">
         <v>0.06117688510234075</v>
       </c>
       <c r="F95">
-        <v>82.44134461613703</v>
+        <v>13.14475379891296</v>
       </c>
       <c r="G95">
-        <v>0.4159984924551561</v>
+        <v>0.132703371731048</v>
       </c>
       <c r="H95" s="2">
-        <v>44466</v>
+        <v>44478</v>
       </c>
       <c r="I95" s="2">
         <v>44516</v>
       </c>
       <c r="J95" s="3">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96">
-        <v>4191</v>
+        <v>1840</v>
       </c>
       <c r="B96">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="C96">
         <v>746</v>
       </c>
       <c r="D96">
-        <v>0.04728899175</v>
+        <v>0.05383900521999999</v>
       </c>
       <c r="E96">
         <v>0.06117688510234075</v>
       </c>
       <c r="F96">
-        <v>58.20416103966012</v>
+        <v>13.501698983507</v>
       </c>
       <c r="G96">
-        <v>0.2936813164839946</v>
+        <v>0.1362930063874008</v>
       </c>
       <c r="H96" s="2">
-        <v>44459</v>
+        <v>44477</v>
       </c>
       <c r="I96" s="2">
         <v>44516</v>
       </c>
       <c r="J96" s="3">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>4099</v>
+        <v>1789</v>
       </c>
       <c r="B97">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="C97">
         <v>746</v>
       </c>
       <c r="D97">
-        <v>0.04834104275</v>
+        <v>0.055370315</v>
       </c>
       <c r="E97">
         <v>0.06117688510234075</v>
       </c>
       <c r="F97">
-        <v>52.61411780224475</v>
+        <v>10.38795391308762</v>
       </c>
       <c r="G97">
-        <v>0.2655267992195049</v>
+        <v>0.104867926114214</v>
       </c>
       <c r="H97" s="2">
-        <v>44458</v>
+        <v>44476</v>
       </c>
       <c r="I97" s="2">
         <v>44516</v>
       </c>
       <c r="J97" s="3">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>4186</v>
+        <v>1923</v>
       </c>
       <c r="B98">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="C98">
         <v>746</v>
       </c>
       <c r="D98">
-        <v>0.04734727998</v>
+        <v>0.05152346198999999</v>
       </c>
       <c r="E98">
         <v>0.06117688510234075</v>
       </c>
       <c r="F98">
-        <v>57.89072704211841</v>
+        <v>18.56353264503129</v>
       </c>
       <c r="G98">
-        <v>0.2920886929129305</v>
+        <v>0.1873597530036775</v>
       </c>
       <c r="H98" s="2">
-        <v>44457</v>
+        <v>44475</v>
       </c>
       <c r="I98" s="2">
         <v>44516</v>
       </c>
       <c r="J98" s="3">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>4147</v>
+        <v>2011</v>
       </c>
       <c r="B99">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="C99">
         <v>746</v>
       </c>
       <c r="D99">
-        <v>0.04778554781</v>
+        <v>0.04927415492999999</v>
       </c>
       <c r="E99">
         <v>0.06117688510234075</v>
       </c>
       <c r="F99">
-        <v>55.53387575133713</v>
+        <v>23.93639037657727</v>
       </c>
       <c r="G99">
-        <v>0.280238229047536</v>
+        <v>0.2415613253895486</v>
       </c>
       <c r="H99" s="2">
-        <v>44456</v>
+        <v>44474</v>
       </c>
       <c r="I99" s="2">
         <v>44516</v>
       </c>
       <c r="J99" s="3">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
-        <v>4114</v>
+        <v>2053</v>
       </c>
       <c r="B100">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="C100">
         <v>746</v>
       </c>
       <c r="D100">
-        <v>0.0481695214</v>
+        <v>0.04824821000999999</v>
       </c>
       <c r="E100">
         <v>0.06117688510234075</v>
       </c>
       <c r="F100">
-        <v>53.51229427142987</v>
+        <v>26.54256996457558</v>
       </c>
       <c r="G100">
-        <v>0.2700330691336443</v>
+        <v>0.2679617562944023</v>
       </c>
       <c r="H100" s="2">
-        <v>44455</v>
+        <v>44473</v>
       </c>
       <c r="I100" s="2">
         <v>44516</v>
       </c>
       <c r="J100" s="3">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>4202</v>
+        <v>2078</v>
       </c>
       <c r="B101">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="C101">
         <v>746</v>
       </c>
       <c r="D101">
-        <v>0.04715038327999999</v>
+        <v>0.04768252488999999</v>
       </c>
       <c r="E101">
         <v>0.06117688510234075</v>
       </c>
       <c r="F101">
-        <v>58.93936065747588</v>
+        <v>28.0412805212441</v>
       </c>
       <c r="G101">
-        <v>0.2974843648469438</v>
+        <v>0.283004313288175</v>
       </c>
       <c r="H101" s="2">
-        <v>44454</v>
+        <v>44472</v>
       </c>
       <c r="I101" s="2">
         <v>44516</v>
       </c>
       <c r="J101" s="3">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
-        <v>4225</v>
+        <v>2056</v>
       </c>
       <c r="B102">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="C102">
         <v>746</v>
       </c>
       <c r="D102">
-        <v>0.04691543857</v>
+        <v>0.0481897416</v>
       </c>
       <c r="E102">
         <v>0.06117688510234075</v>
       </c>
       <c r="F102">
-        <v>60.25461159913971</v>
+        <v>26.7015670408126</v>
       </c>
       <c r="G102">
-        <v>0.3039819506549433</v>
+        <v>0.2695001689392906</v>
       </c>
       <c r="H102" s="2">
-        <v>44447</v>
+        <v>44471</v>
       </c>
       <c r="I102" s="2">
         <v>44516</v>
       </c>
       <c r="J102" s="3">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>3759</v>
+        <v>2301</v>
       </c>
       <c r="B103">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="C103">
         <v>746</v>
       </c>
       <c r="D103">
-        <v>0.05271886619999999</v>
+        <v>0.04305965664</v>
       </c>
       <c r="E103">
         <v>0.06117688510234075</v>
       </c>
       <c r="F103">
-        <v>31.79369305389893</v>
+        <v>41.68774269184608</v>
       </c>
       <c r="G103">
-        <v>0.1604362823406238</v>
+        <v>0.4207471651204684</v>
       </c>
       <c r="H103" s="2">
-        <v>44446</v>
+        <v>44460</v>
       </c>
       <c r="I103" s="2">
         <v>44516</v>
       </c>
       <c r="J103" s="3">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
-        <v>3825</v>
+        <v>2095</v>
       </c>
       <c r="B104">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="C104">
         <v>746</v>
       </c>
       <c r="D104">
-        <v>0.05180863687999999</v>
+        <v>0.04728899175</v>
       </c>
       <c r="E104">
         <v>0.06117688510234075</v>
       </c>
       <c r="F104">
-        <v>35.8335494504534</v>
+        <v>29.09513657315389</v>
       </c>
       <c r="G104">
-        <v>0.1808240630619109</v>
+        <v>0.2936813164839946</v>
       </c>
       <c r="H104" s="2">
-        <v>44445</v>
+        <v>44459</v>
       </c>
       <c r="I104" s="2">
         <v>44516</v>
       </c>
       <c r="J104" s="3">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>3966</v>
+        <v>2049</v>
       </c>
       <c r="B105">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="C105">
         <v>746</v>
       </c>
       <c r="D105">
-        <v>0.04996745754</v>
+        <v>0.04834104275</v>
       </c>
       <c r="E105">
         <v>0.06117688510234075</v>
       </c>
       <c r="F105">
-        <v>44.45658971224345</v>
+        <v>26.30064097994621</v>
       </c>
       <c r="G105">
-        <v>0.2243345592152128</v>
+        <v>0.2655267992195049</v>
       </c>
       <c r="H105" s="2">
-        <v>44444</v>
+        <v>44458</v>
       </c>
       <c r="I105" s="2">
         <v>44516</v>
       </c>
       <c r="J105" s="3">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
-        <v>3960</v>
+        <v>2093</v>
       </c>
       <c r="B106">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="C106">
         <v>746</v>
       </c>
       <c r="D106">
-        <v>0.050047998</v>
+        <v>0.04734727998</v>
       </c>
       <c r="E106">
         <v>0.06117688510234075</v>
       </c>
       <c r="F106">
-        <v>44.0703929252694</v>
+        <v>28.94536352105921</v>
       </c>
       <c r="G106">
-        <v>0.2223642812314042</v>
+        <v>0.2920886929129305</v>
       </c>
       <c r="H106" s="2">
-        <v>44443</v>
+        <v>44457</v>
       </c>
       <c r="I106" s="2">
         <v>44516</v>
       </c>
       <c r="J106" s="3">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
-        <v>4056</v>
+        <v>2073</v>
       </c>
       <c r="B107">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="C107">
         <v>746</v>
       </c>
       <c r="D107">
-        <v>0.04885932051</v>
+        <v>0.04778554781</v>
       </c>
       <c r="E107">
         <v>0.06117688510234075</v>
       </c>
       <c r="F107">
-        <v>49.96004198653411</v>
+        <v>27.76024220702239</v>
       </c>
       <c r="G107">
-        <v>0.252102658484981</v>
+        <v>0.280238229047536</v>
       </c>
       <c r="H107" s="2">
-        <v>44441</v>
+        <v>44456</v>
       </c>
       <c r="I107" s="2">
         <v>44516</v>
       </c>
       <c r="J107" s="3">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>4060</v>
+        <v>2149</v>
       </c>
       <c r="B108">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="C108">
         <v>746</v>
       </c>
       <c r="D108">
-        <v>0.04881660783999999</v>
+        <v>0.04609435830999999</v>
       </c>
       <c r="E108">
         <v>0.06117688510234075</v>
       </c>
       <c r="F108">
-        <v>50.1827256851035</v>
+        <v>32.4123500767403</v>
       </c>
       <c r="G108">
-        <v>0.2531982005560993</v>
+        <v>0.3272098223150373</v>
       </c>
       <c r="H108" s="2">
-        <v>44438</v>
+        <v>44448</v>
       </c>
       <c r="I108" s="2">
         <v>44516</v>
       </c>
       <c r="J108" s="3">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>4043</v>
+        <v>2112</v>
       </c>
       <c r="B109">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="C109">
         <v>746</v>
       </c>
       <c r="D109">
-        <v>0.04902229331999999</v>
+        <v>0.04691543857</v>
       </c>
       <c r="E109">
         <v>0.06117688510234075</v>
       </c>
       <c r="F109">
-        <v>49.1410145760037</v>
+        <v>30.12017507630368</v>
       </c>
       <c r="G109">
-        <v>0.2479400892773402</v>
+        <v>0.3039819506549433</v>
       </c>
       <c r="H109" s="2">
-        <v>44434</v>
+        <v>44447</v>
       </c>
       <c r="I109" s="2">
         <v>44516</v>
       </c>
       <c r="J109" s="3">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
-        <v>4153</v>
+        <v>1879</v>
       </c>
       <c r="B110">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="C110">
         <v>746</v>
       </c>
       <c r="D110">
-        <v>0.04772168400999999</v>
+        <v>0.05271886619999999</v>
       </c>
       <c r="E110">
         <v>0.06117688510234075</v>
       </c>
       <c r="F110">
-        <v>55.87945013649118</v>
+        <v>15.89261751749829</v>
       </c>
       <c r="G110">
-        <v>0.2819515147353402</v>
+        <v>0.1604362823406238</v>
       </c>
       <c r="H110" s="2">
-        <v>44433</v>
+        <v>44446</v>
       </c>
       <c r="I110" s="2">
         <v>44516</v>
       </c>
       <c r="J110" s="3">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
-        <v>4000</v>
+        <v>1912</v>
       </c>
       <c r="B111">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="C111">
         <v>746</v>
       </c>
       <c r="D111">
-        <v>0.04953833885</v>
+        <v>0.05180863687999999</v>
       </c>
       <c r="E111">
         <v>0.06117688510234075</v>
       </c>
       <c r="F111">
-        <v>46.55418500936304</v>
+        <v>17.91209060111553</v>
       </c>
       <c r="G111">
-        <v>0.2349401801215376</v>
+        <v>0.1808240630619109</v>
       </c>
       <c r="H111" s="2">
-        <v>44432</v>
+        <v>44445</v>
       </c>
       <c r="I111" s="2">
         <v>44516</v>
       </c>
       <c r="J111" s="3">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
-        <v>4021</v>
+        <v>1983</v>
       </c>
       <c r="B112">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="C112">
         <v>746</v>
       </c>
       <c r="D112">
-        <v>0.04928845922</v>
+        <v>0.04996745754</v>
       </c>
       <c r="E112">
         <v>0.06117688510234075</v>
       </c>
       <c r="F112">
-        <v>47.80336047289219</v>
+        <v>22.22829485612172</v>
       </c>
       <c r="G112">
-        <v>0.2412010046667625</v>
+        <v>0.2243345592152128</v>
       </c>
       <c r="H112" s="2">
-        <v>44431</v>
+        <v>44444</v>
       </c>
       <c r="I112" s="2">
         <v>44516</v>
       </c>
       <c r="J112" s="3">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
-        <v>4055</v>
+        <v>1980</v>
       </c>
       <c r="B113">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="C113">
         <v>746</v>
       </c>
       <c r="D113">
-        <v>0.04887070187999999</v>
+        <v>0.050047998</v>
       </c>
       <c r="E113">
         <v>0.06117688510234075</v>
       </c>
       <c r="F113">
-        <v>49.90157296659179</v>
+        <v>22.0351964626347</v>
       </c>
       <c r="G113">
-        <v>0.2518110595701712</v>
+        <v>0.2223642812314042</v>
       </c>
       <c r="H113" s="2">
-        <v>44430</v>
+        <v>44443</v>
       </c>
       <c r="I113" s="2">
         <v>44516</v>
       </c>
       <c r="J113" s="3">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
-        <v>4014</v>
+        <v>2010</v>
       </c>
       <c r="B114">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="C114">
         <v>746</v>
       </c>
       <c r="D114">
-        <v>0.04937179246999999</v>
+        <v>0.04929587662999999</v>
       </c>
       <c r="E114">
         <v>0.06117688510234075</v>
       </c>
       <c r="F114">
-        <v>47.38564182621581</v>
+        <v>23.88082702940493</v>
       </c>
       <c r="G114">
-        <v>0.2391060166493639</v>
+        <v>0.2410142446906063</v>
       </c>
       <c r="H114" s="2">
-        <v>44429</v>
+        <v>44442</v>
       </c>
       <c r="I114" s="2">
         <v>44516</v>
       </c>
       <c r="J114" s="3">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
-        <v>4313</v>
+        <v>2024</v>
       </c>
       <c r="B115">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="C115">
         <v>746</v>
       </c>
       <c r="D115">
-        <v>0.0459472013</v>
+        <v>0.04894424534999999</v>
       </c>
       <c r="E115">
         <v>0.06117688510234075</v>
       </c>
       <c r="F115">
-        <v>65.68562623949566</v>
+        <v>24.7588628587377</v>
       </c>
       <c r="G115">
-        <v>0.3314605323380326</v>
+        <v>0.249930092186839</v>
       </c>
       <c r="H115" s="2">
-        <v>44425</v>
+        <v>44437</v>
       </c>
       <c r="I115" s="2">
         <v>44516</v>
       </c>
       <c r="J115" s="3">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
-        <v>4215</v>
+        <v>2017</v>
       </c>
       <c r="B116">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="C116">
         <v>746</v>
       </c>
       <c r="D116">
-        <v>0.04702079382</v>
+        <v>0.0491189699</v>
       </c>
       <c r="E116">
         <v>0.06117688510234075</v>
       </c>
       <c r="F116">
-        <v>59.6679247550663</v>
+        <v>24.32081496312131</v>
       </c>
       <c r="G116">
-        <v>0.3010602359571299</v>
+        <v>0.2454838777541375</v>
       </c>
       <c r="H116" s="2">
-        <v>44424</v>
+        <v>44436</v>
       </c>
       <c r="I116" s="2">
         <v>44516</v>
       </c>
       <c r="J116" s="3">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117">
-        <v>4206</v>
+        <v>2113</v>
       </c>
       <c r="B117">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="C117">
         <v>746</v>
       </c>
       <c r="D117">
-        <v>0.0471155685</v>
+        <v>0.04689070385999999</v>
       </c>
       <c r="E117">
         <v>0.06117688510234075</v>
       </c>
       <c r="F117">
-        <v>59.14189762944522</v>
+        <v>30.18670096506603</v>
       </c>
       <c r="G117">
-        <v>0.298443105962751</v>
+        <v>0.304669797343937</v>
       </c>
       <c r="H117" s="2">
-        <v>44423</v>
+        <v>44435</v>
       </c>
       <c r="I117" s="2">
         <v>44516</v>
       </c>
       <c r="J117" s="3">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
-        <v>4142</v>
+        <v>2021</v>
       </c>
       <c r="B118">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="C118">
         <v>746</v>
       </c>
       <c r="D118">
-        <v>0.04784778998999999</v>
+        <v>0.04902229331999999</v>
       </c>
       <c r="E118">
         <v>0.06117688510234075</v>
       </c>
       <c r="F118">
-        <v>55.20911195531543</v>
+        <v>24.56442999211068</v>
       </c>
       <c r="G118">
-        <v>0.2785728476723062</v>
+        <v>0.2479400892773402</v>
       </c>
       <c r="H118" s="2">
-        <v>44422</v>
+        <v>44434</v>
       </c>
       <c r="I118" s="2">
         <v>44516</v>
       </c>
       <c r="J118" s="3">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
-        <v>4459</v>
+        <v>2076</v>
       </c>
       <c r="B119">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="C119">
         <v>746</v>
       </c>
       <c r="D119">
-        <v>0.04444446006</v>
+        <v>0.04772168400999999</v>
       </c>
       <c r="E119">
         <v>0.06117688510234075</v>
       </c>
       <c r="F119">
-        <v>74.60988326379744</v>
+        <v>27.93299746769942</v>
       </c>
       <c r="G119">
-        <v>0.3764794311766189</v>
+        <v>0.2819515147353402</v>
       </c>
       <c r="H119" s="2">
-        <v>44421</v>
+        <v>44433</v>
       </c>
       <c r="I119" s="2">
         <v>44516</v>
       </c>
       <c r="J119" s="3">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
-        <v>4350</v>
+        <v>2000</v>
       </c>
       <c r="B120">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="C120">
         <v>746</v>
       </c>
       <c r="D120">
-        <v>0.04555618066999999</v>
+        <v>0.04953833885</v>
       </c>
       <c r="E120">
         <v>0.06117688510234075</v>
       </c>
       <c r="F120">
-        <v>67.95006428068234</v>
+        <v>23.27709250468152</v>
       </c>
       <c r="G120">
-        <v>0.3428888068008615</v>
+        <v>0.2349401801215376</v>
       </c>
       <c r="H120" s="2">
-        <v>44420</v>
+        <v>44432</v>
       </c>
       <c r="I120" s="2">
         <v>44516</v>
       </c>
       <c r="J120" s="3">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
-        <v>4343</v>
+        <v>2010</v>
       </c>
       <c r="B121">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="C121">
         <v>746</v>
       </c>
       <c r="D121">
-        <v>0.04563058499999999</v>
+        <v>0.04928845922</v>
       </c>
       <c r="E121">
         <v>0.06117688510234075</v>
       </c>
       <c r="F121">
-        <v>67.51758134446592</v>
+        <v>23.89573602350492</v>
       </c>
       <c r="G121">
-        <v>0.3406991188550565</v>
+        <v>0.2412010046667625</v>
       </c>
       <c r="H121" s="2">
-        <v>44419</v>
+        <v>44431</v>
       </c>
       <c r="I121" s="2">
         <v>44516</v>
       </c>
       <c r="J121" s="3">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
-        <v>4280</v>
+        <v>2027</v>
       </c>
       <c r="B122">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="C122">
         <v>746</v>
       </c>
       <c r="D122">
-        <v>0.04629511887</v>
+        <v>0.04887070187999999</v>
       </c>
       <c r="E122">
         <v>0.06117688510234075</v>
       </c>
       <c r="F122">
-        <v>63.69395947441843</v>
+        <v>24.94463339168473</v>
       </c>
       <c r="G122">
-        <v>0.321454325976132</v>
+        <v>0.2518110595701712</v>
       </c>
       <c r="H122" s="2">
-        <v>44418</v>
+        <v>44430</v>
       </c>
       <c r="I122" s="2">
         <v>44516</v>
       </c>
       <c r="J122" s="3">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
-        <v>4442</v>
+        <v>2007</v>
       </c>
       <c r="B123">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="C123">
         <v>746</v>
       </c>
       <c r="D123">
-        <v>0.04461711254</v>
+        <v>0.04937179246999999</v>
       </c>
       <c r="E123">
         <v>0.06117688510234075</v>
       </c>
       <c r="F123">
-        <v>73.55850972191764</v>
+        <v>23.69282091310791</v>
       </c>
       <c r="G123">
-        <v>0.3711529415422086</v>
+        <v>0.2391060166493639</v>
       </c>
       <c r="H123" s="2">
-        <v>44416</v>
+        <v>44429</v>
       </c>
       <c r="I123" s="2">
         <v>44516</v>
       </c>
       <c r="J123" s="3">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
-        <v>3547</v>
+        <v>2117</v>
       </c>
       <c r="B124">
-        <v>557</v>
+        <v>658</v>
       </c>
       <c r="C124">
         <v>746</v>
       </c>
       <c r="D124">
-        <v>0.05587195613999999</v>
+        <v>0.04680738062</v>
       </c>
       <c r="E124">
         <v>0.06117688510234075</v>
       </c>
       <c r="F124">
-        <v>18.81658302942269</v>
+        <v>30.42024098911538</v>
       </c>
       <c r="G124">
-        <v>0.09494797262956123</v>
+        <v>0.306992279679092</v>
       </c>
       <c r="H124" s="2">
-        <v>44327</v>
+        <v>44428</v>
       </c>
       <c r="I124" s="2">
         <v>44516</v>
       </c>
       <c r="J124" s="3">
-        <v>189</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
-        <v>3399</v>
+        <v>2214</v>
       </c>
       <c r="B125">
-        <v>556</v>
+        <v>656</v>
       </c>
       <c r="C125">
         <v>746</v>
       </c>
       <c r="D125">
-        <v>0.05829907082999999</v>
+        <v>0.04474064594999999</v>
       </c>
       <c r="E125">
         <v>0.06117688510234075</v>
       </c>
       <c r="F125">
-        <v>9.781690711686245</v>
+        <v>36.38983348328245</v>
       </c>
       <c r="G125">
-        <v>0.04936295264005941</v>
+        <v>0.3673670507732303</v>
       </c>
       <c r="H125" s="2">
-        <v>44326</v>
+        <v>44426</v>
       </c>
       <c r="I125" s="2">
         <v>44516</v>
       </c>
       <c r="J125" s="3">
-        <v>190</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
-        <v>3363</v>
+        <v>2156</v>
       </c>
       <c r="B126">
-        <v>555</v>
+        <v>655</v>
       </c>
       <c r="C126">
         <v>746</v>
       </c>
       <c r="D126">
-        <v>0.05892539652999999</v>
+        <v>0.0459472013</v>
       </c>
       <c r="E126">
         <v>0.06117688510234075</v>
       </c>
       <c r="F126">
-        <v>7.571756068781979</v>
+        <v>32.83519827784666</v>
       </c>
       <c r="G126">
-        <v>0.03820913739960141</v>
+        <v>0.3314605323380326</v>
       </c>
       <c r="H126" s="2">
-        <v>44325</v>
+        <v>44425</v>
       </c>
       <c r="I126" s="2">
         <v>44516</v>
       </c>
       <c r="J126" s="3">
-        <v>191</v>
+        <v>91</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127">
-        <v>3447</v>
+        <v>2107</v>
       </c>
       <c r="B127">
-        <v>552</v>
+        <v>654</v>
       </c>
       <c r="C127">
         <v>746</v>
       </c>
       <c r="D127">
-        <v>0.05749354610999999</v>
+        <v>0.04702079382</v>
       </c>
       <c r="E127">
         <v>0.06117688510234075</v>
       </c>
       <c r="F127">
-        <v>12.6964695065986</v>
+        <v>29.82688433189197</v>
       </c>
       <c r="G127">
-        <v>0.06406526021709613</v>
+        <v>0.3010602359571299</v>
       </c>
       <c r="H127" s="2">
-        <v>44322</v>
+        <v>44424</v>
       </c>
       <c r="I127" s="2">
         <v>44516</v>
       </c>
       <c r="J127" s="3">
-        <v>194</v>
+        <v>92</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
-        <v>3721</v>
+        <v>2103</v>
       </c>
       <c r="B128">
-        <v>551</v>
+        <v>653</v>
       </c>
       <c r="C128">
         <v>746</v>
       </c>
       <c r="D128">
-        <v>0.05325825504999999</v>
+        <v>0.0471155685</v>
       </c>
       <c r="E128">
         <v>0.06117688510234075</v>
       </c>
       <c r="F128">
-        <v>29.46522242475996</v>
+        <v>29.57094881472261</v>
       </c>
       <c r="G128">
-        <v>0.1486836180589577</v>
+        <v>0.298443105962751</v>
       </c>
       <c r="H128" s="2">
-        <v>44321</v>
+        <v>44423</v>
       </c>
       <c r="I128" s="2">
         <v>44516</v>
       </c>
       <c r="J128" s="3">
-        <v>195</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
-        <v>3463</v>
+        <v>2071</v>
       </c>
       <c r="B129">
-        <v>550</v>
+        <v>652</v>
       </c>
       <c r="C129">
         <v>746</v>
       </c>
       <c r="D129">
-        <v>0.05722655938999999</v>
+        <v>0.04784778998999999</v>
       </c>
       <c r="E129">
         <v>0.06117688510234075</v>
       </c>
       <c r="F129">
-        <v>13.67997794183605</v>
+        <v>27.60455597765771</v>
       </c>
       <c r="G129">
-        <v>0.06902958616503962</v>
+        <v>0.2785728476723062</v>
       </c>
       <c r="H129" s="2">
-        <v>44320</v>
+        <v>44422</v>
       </c>
       <c r="I129" s="2">
         <v>44516</v>
       </c>
       <c r="J129" s="3">
-        <v>196</v>
+        <v>94</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
-        <v>3499</v>
+        <v>2229</v>
       </c>
       <c r="B130">
-        <v>549</v>
+        <v>651</v>
       </c>
       <c r="C130">
         <v>746</v>
       </c>
       <c r="D130">
-        <v>0.05663478820999999</v>
+        <v>0.04444446006</v>
       </c>
       <c r="E130">
         <v>0.06117688510234075</v>
       </c>
       <c r="F130">
-        <v>15.89279702630034</v>
+        <v>37.29657541937755</v>
       </c>
       <c r="G130">
-        <v>0.08019976830316411</v>
+        <v>0.3764794311766189</v>
       </c>
       <c r="H130" s="2">
-        <v>44319</v>
+        <v>44421</v>
       </c>
       <c r="I130" s="2">
         <v>44516</v>
       </c>
       <c r="J130" s="3">
-        <v>197</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
-        <v>3425</v>
+        <v>2175</v>
       </c>
       <c r="B131">
-        <v>548</v>
+        <v>650</v>
       </c>
       <c r="C131">
         <v>746</v>
       </c>
       <c r="D131">
-        <v>0.05785514734999999</v>
+        <v>0.04555618066999999</v>
       </c>
       <c r="E131">
         <v>0.06117688510234075</v>
       </c>
       <c r="F131">
-        <v>11.37695180176712</v>
+        <v>33.97503214034117</v>
       </c>
       <c r="G131">
-        <v>0.05741473152329224</v>
+        <v>0.3428888068008615</v>
       </c>
       <c r="H131" s="2">
-        <v>44318</v>
+        <v>44420</v>
       </c>
       <c r="I131" s="2">
         <v>44516</v>
       </c>
       <c r="J131" s="3">
-        <v>198</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132">
-        <v>3431</v>
+        <v>2171</v>
       </c>
       <c r="B132">
-        <v>547</v>
+        <v>649</v>
       </c>
       <c r="C132">
         <v>746</v>
       </c>
       <c r="D132">
-        <v>0.05775494724999999</v>
+        <v>0.04563058499999999</v>
       </c>
       <c r="E132">
         <v>0.06117688510234075</v>
       </c>
       <c r="F132">
-        <v>11.74066877138115</v>
+        <v>33.75101752218179</v>
       </c>
       <c r="G132">
-        <v>0.0592492594189109</v>
+        <v>0.3406991188550565</v>
       </c>
       <c r="H132" s="2">
-        <v>44317</v>
+        <v>44419</v>
       </c>
       <c r="I132" s="2">
         <v>44516</v>
       </c>
       <c r="J132" s="3">
-        <v>199</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
-        <v>3697</v>
+        <v>2140</v>
       </c>
       <c r="B133">
-        <v>546</v>
+        <v>648</v>
       </c>
       <c r="C133">
         <v>746</v>
       </c>
       <c r="D133">
-        <v>0.053608555</v>
+        <v>0.04629511887</v>
       </c>
       <c r="E133">
         <v>0.06117688510234075</v>
       </c>
       <c r="F133">
-        <v>27.98011638835379</v>
+        <v>31.84697973720922</v>
       </c>
       <c r="G133">
-        <v>0.1411776553637896</v>
+        <v>0.321454325976132</v>
       </c>
       <c r="H133" s="2">
-        <v>44316</v>
+        <v>44418</v>
       </c>
       <c r="I133" s="2">
         <v>44516</v>
       </c>
       <c r="J133" s="3">
-        <v>200</v>
+        <v>98</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134">
-        <v>3610</v>
+        <v>2221</v>
       </c>
       <c r="B134">
-        <v>545</v>
+        <v>646</v>
       </c>
       <c r="C134">
         <v>746</v>
       </c>
       <c r="D134">
-        <v>0.05490107623</v>
+        <v>0.04461711254</v>
       </c>
       <c r="E134">
         <v>0.06117688510234075</v>
       </c>
       <c r="F134">
-        <v>22.65567002915013</v>
+        <v>36.77925486095882</v>
       </c>
       <c r="G134">
-        <v>0.1143112176171042</v>
+        <v>0.3711529415422086</v>
       </c>
       <c r="H134" s="2">
-        <v>44315</v>
+        <v>44416</v>
       </c>
       <c r="I134" s="2">
         <v>44516</v>
       </c>
       <c r="J134" s="3">
-        <v>201</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>3599</v>
+        <v>1746</v>
       </c>
       <c r="B135">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="C135">
         <v>746</v>
       </c>
       <c r="D135">
-        <v>0.05506698196999999</v>
+        <v>0.05672669001999999</v>
       </c>
       <c r="E135">
         <v>0.06117688510234075</v>
       </c>
       <c r="F135">
-        <v>21.98954137329441</v>
+        <v>7.770040613766972</v>
       </c>
       <c r="G135">
-        <v>0.110954022061158</v>
+        <v>0.07844975761448048</v>
       </c>
       <c r="H135" s="2">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="I135" s="2">
         <v>44516</v>
       </c>
       <c r="J135" s="3">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136">
-        <v>4596</v>
+        <v>1773</v>
       </c>
       <c r="B136">
-        <v>808</v>
+        <v>557</v>
       </c>
       <c r="C136">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D136">
-        <v>0.04311473166</v>
+        <v>0.05587195613999999</v>
       </c>
       <c r="E136">
-        <v>0.03507142</v>
+        <v>0.06117688510234075</v>
       </c>
       <c r="F136">
-        <v>-36.96706038936001</v>
+        <v>9.405639050230173</v>
       </c>
       <c r="G136">
-        <v>-0.1865559949074725</v>
+        <v>0.09494797262956123</v>
       </c>
       <c r="H136" s="2">
-        <v>44578</v>
+        <v>44327</v>
       </c>
       <c r="I136" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J136" s="3">
-        <v>6</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
-        <v>4595</v>
+        <v>1699</v>
       </c>
       <c r="B137">
-        <v>807</v>
+        <v>556</v>
       </c>
       <c r="C137">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D137">
-        <v>0.04312737429</v>
+        <v>0.05829907082999999</v>
       </c>
       <c r="E137">
-        <v>0.03507142</v>
+        <v>0.06117688510234075</v>
       </c>
       <c r="F137">
-        <v>-37.01710996255</v>
+        <v>4.889406448706952</v>
       </c>
       <c r="G137">
-        <v>-0.1867944530040158</v>
+        <v>0.04936295264005941</v>
       </c>
       <c r="H137" s="2">
-        <v>44577</v>
+        <v>44326</v>
       </c>
       <c r="I137" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J137" s="3">
-        <v>7</v>
+        <v>190</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
-        <v>4598</v>
+        <v>1681</v>
       </c>
       <c r="B138">
-        <v>806</v>
+        <v>555</v>
       </c>
       <c r="C138">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D138">
-        <v>0.04310301996</v>
+        <v>0.05892539652999999</v>
       </c>
       <c r="E138">
-        <v>0.03507142</v>
+        <v>0.06117688510234075</v>
       </c>
       <c r="F138">
-        <v>-36.92929661607998</v>
+        <v>3.784752290104819</v>
       </c>
       <c r="G138">
-        <v>-0.1863349706691874</v>
+        <v>0.03820913739960141</v>
       </c>
       <c r="H138" s="2">
-        <v>44576</v>
+        <v>44325</v>
       </c>
       <c r="I138" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J138" s="3">
-        <v>8</v>
+        <v>191</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139">
-        <v>4652</v>
+        <v>1727</v>
       </c>
       <c r="B139">
-        <v>805</v>
+        <v>554</v>
       </c>
       <c r="C139">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D139">
-        <v>0.04260090834999999</v>
+        <v>0.05737280548999999</v>
       </c>
       <c r="E139">
-        <v>0.03507142</v>
+        <v>0.06117688510234075</v>
       </c>
       <c r="F139">
-        <v>-35.02717980419997</v>
+        <v>6.569645490512499</v>
       </c>
       <c r="G139">
-        <v>-0.1767447841285289</v>
+        <v>0.06630457722698968</v>
       </c>
       <c r="H139" s="2">
-        <v>44575</v>
+        <v>44324</v>
       </c>
       <c r="I139" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J139" s="3">
-        <v>9</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
-        <v>4509</v>
+        <v>1755</v>
       </c>
       <c r="B140">
-        <v>804</v>
+        <v>553</v>
       </c>
       <c r="C140">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D140">
-        <v>0.04394655265</v>
+        <v>0.05645007368</v>
       </c>
       <c r="E140">
-        <v>0.03507142</v>
+        <v>0.06117688510234075</v>
       </c>
       <c r="F140">
-        <v>-40.01797311884999</v>
+        <v>8.295554046208029</v>
       </c>
       <c r="G140">
-        <v>-0.2019528749088354</v>
+        <v>0.08373437117435412</v>
       </c>
       <c r="H140" s="2">
-        <v>44574</v>
+        <v>44323</v>
       </c>
       <c r="I140" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J140" s="3">
-        <v>10</v>
+        <v>193</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
-        <v>3905</v>
+        <v>1723</v>
       </c>
       <c r="B141">
-        <v>788</v>
+        <v>552</v>
       </c>
       <c r="C141">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D141">
-        <v>0.05075214144</v>
+        <v>0.05749354610999999</v>
       </c>
       <c r="E141">
-        <v>0.03507142</v>
+        <v>0.06117688510234075</v>
       </c>
       <c r="F141">
-        <v>-61.23321722319999</v>
+        <v>6.346393083803129</v>
       </c>
       <c r="G141">
-        <v>-0.3089666956918065</v>
+        <v>0.06406526021709613</v>
       </c>
       <c r="H141" s="2">
-        <v>44558</v>
+        <v>44322</v>
       </c>
       <c r="I141" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J141" s="3">
-        <v>26</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142">
-        <v>3899</v>
+        <v>1860</v>
       </c>
       <c r="B142">
-        <v>787</v>
+        <v>551</v>
       </c>
       <c r="C142">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D142">
-        <v>0.05082625548</v>
+        <v>0.05325825504999999</v>
       </c>
       <c r="E142">
-        <v>0.03507142</v>
+        <v>0.06117688510234075</v>
       </c>
       <c r="F142">
-        <v>-61.42810353652</v>
+        <v>14.72865189735381</v>
       </c>
       <c r="G142">
-        <v>-0.3099743495013023</v>
+        <v>0.1486836180589577</v>
       </c>
       <c r="H142" s="2">
-        <v>44557</v>
+        <v>44321</v>
       </c>
       <c r="I142" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J142" s="3">
-        <v>27</v>
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143">
-        <v>3928</v>
+        <v>1731</v>
       </c>
       <c r="B143">
-        <v>786</v>
+        <v>550</v>
       </c>
       <c r="C143">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D143">
-        <v>0.05045006966999999</v>
+        <v>0.05722655938999999</v>
       </c>
       <c r="E143">
-        <v>0.03507142</v>
+        <v>0.06117688510234075</v>
       </c>
       <c r="F143">
-        <v>-60.40733590375998</v>
+        <v>6.838013808061856</v>
       </c>
       <c r="G143">
-        <v>-0.3048291066909046</v>
+        <v>0.06902958616503962</v>
       </c>
       <c r="H143" s="2">
-        <v>44556</v>
+        <v>44320</v>
       </c>
       <c r="I143" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J143" s="3">
-        <v>28</v>
+        <v>196</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
-        <v>3896</v>
+        <v>1749</v>
       </c>
       <c r="B144">
-        <v>785</v>
+        <v>549</v>
       </c>
       <c r="C144">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D144">
-        <v>0.05087080998999999</v>
+        <v>0.05663478820999999</v>
       </c>
       <c r="E144">
-        <v>0.03507142</v>
+        <v>0.06117688510234075</v>
       </c>
       <c r="F144">
-        <v>-61.55442340103995</v>
+        <v>7.944127464704</v>
       </c>
       <c r="G144">
-        <v>-0.3105786991224591</v>
+        <v>0.08019976830316411</v>
       </c>
       <c r="H144" s="2">
-        <v>44555</v>
+        <v>44319</v>
       </c>
       <c r="I144" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J144" s="3">
-        <v>29</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145">
-        <v>3894</v>
+        <v>1712</v>
       </c>
       <c r="B145">
-        <v>784</v>
+        <v>548</v>
       </c>
       <c r="C145">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D145">
-        <v>0.05088965882</v>
+        <v>0.05785514734999999</v>
       </c>
       <c r="E145">
-        <v>0.03507142</v>
+        <v>0.06117688510234075</v>
       </c>
       <c r="F145">
-        <v>-61.59622196507999</v>
+        <v>5.686815032007388</v>
       </c>
       <c r="G145">
-        <v>-0.3108340512941957</v>
+        <v>0.05741473152329224</v>
       </c>
       <c r="H145" s="2">
-        <v>44554</v>
+        <v>44318</v>
       </c>
       <c r="I145" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J145" s="3">
-        <v>30</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
-        <v>4075</v>
+        <v>1715</v>
       </c>
       <c r="B146">
-        <v>783</v>
+        <v>547</v>
       </c>
       <c r="C146">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D146">
-        <v>0.04863675817</v>
+        <v>0.05775494724999999</v>
       </c>
       <c r="E146">
-        <v>0.03507142</v>
+        <v>0.06117688510234075</v>
       </c>
       <c r="F146">
-        <v>-55.27875304274998</v>
+        <v>5.868623416764404</v>
       </c>
       <c r="G146">
-        <v>-0.2789112325822599</v>
+        <v>0.0592492594189109</v>
       </c>
       <c r="H146" s="2">
-        <v>44553</v>
+        <v>44317</v>
       </c>
       <c r="I146" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J146" s="3">
-        <v>31</v>
+        <v>199</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
-        <v>4051</v>
+        <v>1848</v>
       </c>
       <c r="B147">
-        <v>776</v>
+        <v>546</v>
       </c>
       <c r="C147">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D147">
-        <v>0.04891384498</v>
+        <v>0.053608555</v>
       </c>
       <c r="E147">
-        <v>0.03507142</v>
+        <v>0.06117688510234075</v>
       </c>
       <c r="F147">
-        <v>-56.07566359397999</v>
+        <v>13.98627402912572</v>
       </c>
       <c r="G147">
-        <v>-0.2829960512337544</v>
+        <v>0.1411776553637896</v>
       </c>
       <c r="H147" s="2">
-        <v>44546</v>
+        <v>44316</v>
       </c>
       <c r="I147" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J147" s="3">
-        <v>38</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148">
-        <v>3505</v>
+        <v>2337</v>
       </c>
       <c r="B148">
-        <v>763</v>
+        <v>810</v>
       </c>
       <c r="C148">
         <v>814</v>
       </c>
       <c r="D148">
-        <v>0.05654074426</v>
+        <v>0.04239447212</v>
       </c>
       <c r="E148">
         <v>0.03507142</v>
       </c>
       <c r="F148">
-        <v>-75.24998153129999</v>
+        <v>-17.11397280444</v>
       </c>
       <c r="G148">
-        <v>-0.379714213899879</v>
+        <v>-0.1727360137725428</v>
       </c>
       <c r="H148" s="2">
-        <v>44533</v>
+        <v>44580</v>
       </c>
       <c r="I148" s="2">
         <v>44584</v>
       </c>
       <c r="J148" s="3">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>3462</v>
+        <v>2345</v>
       </c>
       <c r="B149">
-        <v>762</v>
+        <v>809</v>
       </c>
       <c r="C149">
         <v>814</v>
       </c>
       <c r="D149">
-        <v>0.05724125406999999</v>
+        <v>0.04224383162999999</v>
       </c>
       <c r="E149">
         <v>0.03507142</v>
       </c>
       <c r="F149">
-        <v>-76.75196555033997</v>
+        <v>-16.81930527234998</v>
       </c>
       <c r="G149">
-        <v>-0.3873051775366178</v>
+        <v>-0.1697860102469118</v>
       </c>
       <c r="H149" s="2">
-        <v>44532</v>
+        <v>44579</v>
       </c>
       <c r="I149" s="2">
         <v>44584</v>
       </c>
       <c r="J149" s="3">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150">
-        <v>3476</v>
+        <v>2298</v>
       </c>
       <c r="B150">
-        <v>761</v>
+        <v>808</v>
       </c>
       <c r="C150">
         <v>814</v>
       </c>
       <c r="D150">
-        <v>0.05700751055999999</v>
+        <v>0.04311473166</v>
       </c>
       <c r="E150">
         <v>0.03507142</v>
       </c>
       <c r="F150">
-        <v>-76.24985078655996</v>
+        <v>-18.48353019468001</v>
       </c>
       <c r="G150">
-        <v>-0.3847929920902687</v>
+        <v>-0.1865559949074725</v>
       </c>
       <c r="H150" s="2">
-        <v>44531</v>
+        <v>44578</v>
       </c>
       <c r="I150" s="2">
         <v>44584</v>
       </c>
       <c r="J150" s="3">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
-        <v>3087</v>
+        <v>2297</v>
       </c>
       <c r="B151">
-        <v>743</v>
+        <v>807</v>
       </c>
       <c r="C151">
         <v>814</v>
       </c>
       <c r="D151">
-        <v>0.06418634222</v>
+        <v>0.04312737429</v>
       </c>
       <c r="E151">
         <v>0.03507142</v>
       </c>
       <c r="F151">
-        <v>-89.87776489314</v>
+        <v>-18.50452700413</v>
       </c>
       <c r="G151">
-        <v>-0.4535999593216888</v>
+        <v>-0.1867944530040158</v>
       </c>
       <c r="H151" s="2">
-        <v>44513</v>
+        <v>44577</v>
       </c>
       <c r="I151" s="2">
         <v>44584</v>
       </c>
       <c r="J151" s="3">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
-        <v>3056</v>
+        <v>2299</v>
       </c>
       <c r="B152">
-        <v>742</v>
+        <v>806</v>
       </c>
       <c r="C152">
         <v>814</v>
       </c>
       <c r="D152">
-        <v>0.06483902425</v>
+        <v>0.04310301996</v>
       </c>
       <c r="E152">
         <v>0.03507142</v>
       </c>
       <c r="F152">
-        <v>-90.969798588</v>
+        <v>-18.46464830803999</v>
       </c>
       <c r="G152">
-        <v>-0.459100126726537</v>
+        <v>-0.1863349706691874</v>
       </c>
       <c r="H152" s="2">
-        <v>44512</v>
+        <v>44576</v>
       </c>
       <c r="I152" s="2">
         <v>44584</v>
       </c>
       <c r="J152" s="3">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
-        <v>3051</v>
+        <v>2082</v>
       </c>
       <c r="B153">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="C153">
         <v>814</v>
       </c>
       <c r="D153">
-        <v>0.06494730241999999</v>
+        <v>0.04759128374</v>
       </c>
       <c r="E153">
         <v>0.03507142</v>
       </c>
       <c r="F153">
-        <v>-91.15131726341998</v>
+        <v>-26.06635630668</v>
       </c>
       <c r="G153">
-        <v>-0.4600018985669212</v>
+        <v>-0.2630705195598071</v>
       </c>
       <c r="H153" s="2">
-        <v>44511</v>
+        <v>44559</v>
       </c>
       <c r="I153" s="2">
         <v>44584</v>
       </c>
       <c r="J153" s="3">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
-        <v>2957</v>
+        <v>1952</v>
       </c>
       <c r="B154">
-        <v>740</v>
+        <v>788</v>
       </c>
       <c r="C154">
         <v>814</v>
       </c>
       <c r="D154">
-        <v>0.06701461767</v>
+        <v>0.05075214144</v>
       </c>
       <c r="E154">
         <v>0.03507142</v>
       </c>
       <c r="F154">
-        <v>-94.45603551018999</v>
+        <v>-30.60876825087999</v>
       </c>
       <c r="G154">
-        <v>-0.4766601493915529</v>
+        <v>-0.3089666956918065</v>
       </c>
       <c r="H154" s="2">
-        <v>44510</v>
+        <v>44558</v>
       </c>
       <c r="I154" s="2">
         <v>44584</v>
       </c>
       <c r="J154" s="3">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
-        <v>2932</v>
+        <v>1949</v>
       </c>
       <c r="B155">
-        <v>739</v>
+        <v>787</v>
       </c>
       <c r="C155">
         <v>814</v>
       </c>
       <c r="D155">
-        <v>0.06759334582</v>
+        <v>0.05082625548</v>
       </c>
       <c r="E155">
         <v>0.03507142</v>
       </c>
       <c r="F155">
-        <v>-95.35428650423999</v>
+        <v>-30.70617435052</v>
       </c>
       <c r="G155">
-        <v>-0.4811409381421268</v>
+        <v>-0.3099743495013023</v>
       </c>
       <c r="H155" s="2">
-        <v>44509</v>
+        <v>44557</v>
       </c>
       <c r="I155" s="2">
         <v>44584</v>
       </c>
       <c r="J155" s="3">
-        <v>75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156">
-        <v>3129</v>
+        <v>1964</v>
       </c>
       <c r="B156">
-        <v>738</v>
+        <v>786</v>
       </c>
       <c r="C156">
         <v>814</v>
       </c>
       <c r="D156">
-        <v>0.06333685357999999</v>
+        <v>0.05045006966999999</v>
       </c>
       <c r="E156">
         <v>0.03507142</v>
       </c>
       <c r="F156">
-        <v>-88.44254167181998</v>
+        <v>-30.20366795187999</v>
       </c>
       <c r="G156">
-        <v>-0.4462715146450759</v>
+        <v>-0.3048291066909046</v>
       </c>
       <c r="H156" s="2">
-        <v>44508</v>
+        <v>44556</v>
       </c>
       <c r="I156" s="2">
         <v>44584</v>
       </c>
       <c r="J156" s="3">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>3225</v>
+        <v>1948</v>
       </c>
       <c r="B157">
-        <v>735</v>
+        <v>785</v>
       </c>
       <c r="C157">
         <v>814</v>
       </c>
       <c r="D157">
-        <v>0.06145640500999999</v>
+        <v>0.05087080998999999</v>
       </c>
       <c r="E157">
         <v>0.03507142</v>
       </c>
       <c r="F157">
-        <v>-85.09157665724997</v>
+        <v>-30.77721170051998</v>
       </c>
       <c r="G157">
-        <v>-0.4293284809891941</v>
+        <v>-0.3105786991224591</v>
       </c>
       <c r="H157" s="2">
-        <v>44505</v>
+        <v>44555</v>
       </c>
       <c r="I157" s="2">
         <v>44584</v>
       </c>
       <c r="J157" s="3">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
-        <v>3148</v>
+        <v>1947</v>
       </c>
       <c r="B158">
-        <v>734</v>
+        <v>784</v>
       </c>
       <c r="C158">
         <v>814</v>
       </c>
       <c r="D158">
-        <v>0.06295938648999999</v>
+        <v>0.05088965882</v>
       </c>
       <c r="E158">
         <v>0.03507142</v>
       </c>
       <c r="F158">
-        <v>-87.79131851051997</v>
+        <v>-30.79811098254</v>
       </c>
       <c r="G158">
-        <v>-0.4429516875046029</v>
+        <v>-0.3108340512941957</v>
       </c>
       <c r="H158" s="2">
-        <v>44504</v>
+        <v>44554</v>
       </c>
       <c r="I158" s="2">
         <v>44584</v>
       </c>
       <c r="J158" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
-        <v>3131</v>
+        <v>2037</v>
       </c>
       <c r="B159">
-        <v>733</v>
+        <v>783</v>
       </c>
       <c r="C159">
         <v>814</v>
       </c>
       <c r="D159">
-        <v>0.06328379057</v>
+        <v>0.04863675817</v>
       </c>
       <c r="E159">
         <v>0.03507142</v>
       </c>
       <c r="F159">
-        <v>-88.33293225467</v>
+        <v>-27.63259385228999</v>
       </c>
       <c r="G159">
-        <v>-0.4458072172335109</v>
+        <v>-0.2789112325822599</v>
       </c>
       <c r="H159" s="2">
-        <v>44503</v>
+        <v>44553</v>
       </c>
       <c r="I159" s="2">
         <v>44584</v>
       </c>
       <c r="J159" s="3">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160">
-        <v>3250</v>
+        <v>1731</v>
       </c>
       <c r="B160">
-        <v>732</v>
+        <v>762</v>
       </c>
       <c r="C160">
         <v>814</v>
       </c>
       <c r="D160">
-        <v>0.06097203111999999</v>
+        <v>0.05724125406999999</v>
       </c>
       <c r="E160">
         <v>0.03507142</v>
       </c>
       <c r="F160">
-        <v>-84.17698613999998</v>
+        <v>-38.37598277516999</v>
       </c>
       <c r="G160">
-        <v>-0.4247949534274921</v>
+        <v>-0.3873051775366178</v>
       </c>
       <c r="H160" s="2">
-        <v>44502</v>
+        <v>44532</v>
       </c>
       <c r="I160" s="2">
         <v>44584</v>
       </c>
       <c r="J160" s="3">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
-        <v>3230</v>
+        <v>1556</v>
       </c>
       <c r="B161">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="C161">
         <v>814</v>
       </c>
       <c r="D161">
-        <v>0.06136110980999999</v>
+        <v>0.06367033673</v>
       </c>
       <c r="E161">
         <v>0.03507142</v>
       </c>
       <c r="F161">
-        <v>-84.91569808629997</v>
+        <v>-44.49991443188</v>
       </c>
       <c r="G161">
-        <v>-0.4284422151327447</v>
+        <v>-0.4491717524799087</v>
       </c>
       <c r="H161" s="2">
-        <v>44501</v>
+        <v>44516</v>
       </c>
       <c r="I161" s="2">
         <v>44584</v>
       </c>
       <c r="J161" s="3">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162">
-        <v>3200</v>
+        <v>1511</v>
       </c>
       <c r="B162">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="C162">
         <v>814</v>
       </c>
       <c r="D162">
-        <v>0.06192104918999999</v>
+        <v>0.06558462911</v>
       </c>
       <c r="E162">
         <v>0.03507142</v>
       </c>
       <c r="F162">
-        <v>-85.91881340799998</v>
+        <v>-46.10545896521</v>
       </c>
       <c r="G162">
-        <v>-0.4336106952518515</v>
+        <v>-0.4652493964526744</v>
       </c>
       <c r="H162" s="2">
-        <v>44500</v>
+        <v>44515</v>
       </c>
       <c r="I162" s="2">
         <v>44584</v>
       </c>
       <c r="J162" s="3">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
-        <v>3262</v>
+        <v>1537</v>
       </c>
       <c r="B163">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="C163">
         <v>814</v>
       </c>
       <c r="D163">
-        <v>0.06074891823</v>
+        <v>0.06444439000999999</v>
       </c>
       <c r="E163">
         <v>0.03507142</v>
       </c>
       <c r="F163">
-        <v>-83.75999922625999</v>
+        <v>-45.14625490536999</v>
       </c>
       <c r="G163">
-        <v>-0.4226823946524125</v>
+        <v>-0.4557878506638378</v>
       </c>
       <c r="H163" s="2">
-        <v>44492</v>
+        <v>44514</v>
       </c>
       <c r="I163" s="2">
         <v>44584</v>
       </c>
       <c r="J163" s="3">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
-        <v>3183</v>
+        <v>1543</v>
       </c>
       <c r="B164">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C164">
         <v>814</v>
       </c>
       <c r="D164">
-        <v>0.06225534315</v>
+        <v>0.06418634222</v>
       </c>
       <c r="E164">
         <v>0.03507142</v>
       </c>
       <c r="F164">
-        <v>-86.52642738645</v>
+        <v>-44.92432498546</v>
       </c>
       <c r="G164">
-        <v>-0.4366520490378182</v>
+        <v>-0.4535999593216888</v>
       </c>
       <c r="H164" s="2">
-        <v>44491</v>
+        <v>44513</v>
       </c>
       <c r="I164" s="2">
         <v>44584</v>
       </c>
       <c r="J164" s="3">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165">
-        <v>2999</v>
+        <v>1528</v>
       </c>
       <c r="B165">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="C165">
         <v>814</v>
       </c>
       <c r="D165">
-        <v>0.06606740139999998</v>
+        <v>0.06483902425</v>
       </c>
       <c r="E165">
         <v>0.03507142</v>
       </c>
       <c r="F165">
-        <v>-92.95694821859993</v>
+        <v>-45.484899294</v>
       </c>
       <c r="G165">
-        <v>-0.4691569630889098</v>
+        <v>-0.459100126726537</v>
       </c>
       <c r="H165" s="2">
-        <v>44490</v>
+        <v>44512</v>
       </c>
       <c r="I165" s="2">
         <v>44584</v>
       </c>
       <c r="J165" s="3">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
-        <v>3080</v>
+        <v>1525</v>
       </c>
       <c r="B166">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="C166">
         <v>814</v>
       </c>
       <c r="D166">
-        <v>0.06434487058999999</v>
+        <v>0.06494730241999999</v>
       </c>
       <c r="E166">
         <v>0.03507142</v>
       </c>
       <c r="F166">
-        <v>-90.16222781719998</v>
+        <v>-45.56072069049999</v>
       </c>
       <c r="G166">
-        <v>-0.4549461413408991</v>
+        <v>-0.4600018985669212</v>
       </c>
       <c r="H166" s="2">
-        <v>44489</v>
+        <v>44511</v>
       </c>
       <c r="I166" s="2">
         <v>44584</v>
       </c>
       <c r="J166" s="3">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
-        <v>3193</v>
+        <v>1478</v>
       </c>
       <c r="B167">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="C167">
         <v>814</v>
       </c>
       <c r="D167">
-        <v>0.06206760559999999</v>
+        <v>0.06701461767</v>
       </c>
       <c r="E167">
         <v>0.03507142</v>
       </c>
       <c r="F167">
-        <v>-86.19882062079998</v>
+        <v>-47.21204615626</v>
       </c>
       <c r="G167">
-        <v>-0.4349480753934545</v>
+        <v>-0.4766601493915529</v>
       </c>
       <c r="H167" s="2">
-        <v>44488</v>
+        <v>44510</v>
       </c>
       <c r="I167" s="2">
         <v>44584</v>
       </c>
       <c r="J167" s="3">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
-        <v>3218</v>
+        <v>1466</v>
       </c>
       <c r="B168">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="C168">
         <v>814</v>
       </c>
       <c r="D168">
-        <v>0.06158984831999999</v>
+        <v>0.06759334582</v>
       </c>
       <c r="E168">
         <v>0.03507142</v>
       </c>
       <c r="F168">
-        <v>-85.33630233375996</v>
+        <v>-47.67714325212</v>
       </c>
       <c r="G168">
-        <v>-0.4305649233331315</v>
+        <v>-0.4811409381421268</v>
       </c>
       <c r="H168" s="2">
-        <v>44487</v>
+        <v>44509</v>
       </c>
       <c r="I168" s="2">
         <v>44584</v>
       </c>
       <c r="J168" s="3">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
-        <v>3252</v>
+        <v>1564</v>
       </c>
       <c r="B169">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="C169">
         <v>814</v>
       </c>
       <c r="D169">
-        <v>0.06093644556999999</v>
+        <v>0.06333685357999999</v>
       </c>
       <c r="E169">
         <v>0.03507142</v>
       </c>
       <c r="F169">
-        <v>-84.11306315363997</v>
+        <v>-44.20713811911999</v>
       </c>
       <c r="G169">
-        <v>-0.4244590462744969</v>
+        <v>-0.4462715146450759</v>
       </c>
       <c r="H169" s="2">
-        <v>44486</v>
+        <v>44508</v>
       </c>
       <c r="I169" s="2">
         <v>44584</v>
       </c>
       <c r="J169" s="3">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170">
-        <v>3210</v>
+        <v>1610</v>
       </c>
       <c r="B170">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="C170">
         <v>814</v>
       </c>
       <c r="D170">
-        <v>0.06173409241999999</v>
+        <v>0.06153209061999999</v>
       </c>
       <c r="E170">
         <v>0.03507142</v>
       </c>
       <c r="F170">
-        <v>-85.58717846819997</v>
+        <v>-42.60167969819999</v>
       </c>
       <c r="G170">
-        <v>-0.4318954304633478</v>
+        <v>-0.4300304175167972</v>
       </c>
       <c r="H170" s="2">
-        <v>44485</v>
+        <v>44507</v>
       </c>
       <c r="I170" s="2">
         <v>44584</v>
       </c>
       <c r="J170" s="3">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171">
-        <v>3299</v>
+        <v>1624</v>
       </c>
       <c r="B171">
-        <v>534</v>
+        <v>736</v>
       </c>
       <c r="C171">
         <v>814</v>
       </c>
       <c r="D171">
-        <v>0.06006667666999999</v>
+        <v>0.06100112018</v>
       </c>
       <c r="E171">
         <v>0.03507142</v>
       </c>
       <c r="F171">
-        <v>-82.45935175432997</v>
+        <v>-42.10983309232</v>
       </c>
       <c r="G171">
-        <v>-0.4161251804777099</v>
+        <v>-0.4250692463267484</v>
       </c>
       <c r="H171" s="2">
-        <v>44304</v>
+        <v>44506</v>
       </c>
       <c r="I171" s="2">
         <v>44584</v>
       </c>
       <c r="J171" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172">
+        <v>1612</v>
+      </c>
+      <c r="B172">
+        <v>735</v>
+      </c>
+      <c r="C172">
+        <v>814</v>
+      </c>
+      <c r="D172">
+        <v>0.06145640500999999</v>
+      </c>
+      <c r="E172">
+        <v>0.03507142</v>
+      </c>
+      <c r="F172">
+        <v>-42.53259583611999</v>
+      </c>
+      <c r="G172">
+        <v>-0.4293284809891941</v>
+      </c>
+      <c r="H172" s="2">
+        <v>44505</v>
+      </c>
+      <c r="I172" s="2">
+        <v>44584</v>
+      </c>
+      <c r="J172" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173">
+        <v>1574</v>
+      </c>
+      <c r="B173">
+        <v>734</v>
+      </c>
+      <c r="C173">
+        <v>814</v>
+      </c>
+      <c r="D173">
+        <v>0.06295938648999999</v>
+      </c>
+      <c r="E173">
+        <v>0.03507142</v>
+      </c>
+      <c r="F173">
+        <v>-43.89565925525999</v>
+      </c>
+      <c r="G173">
+        <v>-0.4429516875046029</v>
+      </c>
+      <c r="H173" s="2">
+        <v>44504</v>
+      </c>
+      <c r="I173" s="2">
+        <v>44584</v>
+      </c>
+      <c r="J173" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174">
+        <v>1565</v>
+      </c>
+      <c r="B174">
+        <v>733</v>
+      </c>
+      <c r="C174">
+        <v>814</v>
+      </c>
+      <c r="D174">
+        <v>0.06328379057</v>
+      </c>
+      <c r="E174">
+        <v>0.03507142</v>
+      </c>
+      <c r="F174">
+        <v>-44.15235994205</v>
+      </c>
+      <c r="G174">
+        <v>-0.4458072172335109</v>
+      </c>
+      <c r="H174" s="2">
+        <v>44503</v>
+      </c>
+      <c r="I174" s="2">
+        <v>44584</v>
+      </c>
+      <c r="J174" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175">
+        <v>1625</v>
+      </c>
+      <c r="B175">
+        <v>732</v>
+      </c>
+      <c r="C175">
+        <v>814</v>
+      </c>
+      <c r="D175">
+        <v>0.06097203111999999</v>
+      </c>
+      <c r="E175">
+        <v>0.03507142</v>
+      </c>
+      <c r="F175">
+        <v>-42.08849306999999</v>
+      </c>
+      <c r="G175">
+        <v>-0.4247949534274921</v>
+      </c>
+      <c r="H175" s="2">
+        <v>44502</v>
+      </c>
+      <c r="I175" s="2">
+        <v>44584</v>
+      </c>
+      <c r="J175" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176">
+        <v>1615</v>
+      </c>
+      <c r="B176">
+        <v>731</v>
+      </c>
+      <c r="C176">
+        <v>814</v>
+      </c>
+      <c r="D176">
+        <v>0.06136110980999999</v>
+      </c>
+      <c r="E176">
+        <v>0.03507142</v>
+      </c>
+      <c r="F176">
+        <v>-42.45784904314998</v>
+      </c>
+      <c r="G176">
+        <v>-0.4284422151327447</v>
+      </c>
+      <c r="H176" s="2">
+        <v>44501</v>
+      </c>
+      <c r="I176" s="2">
+        <v>44584</v>
+      </c>
+      <c r="J176" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177">
+        <v>1615</v>
+      </c>
+      <c r="B177">
+        <v>723</v>
+      </c>
+      <c r="C177">
+        <v>814</v>
+      </c>
+      <c r="D177">
+        <v>0.06134803674999999</v>
+      </c>
+      <c r="E177">
+        <v>0.03507142</v>
+      </c>
+      <c r="F177">
+        <v>-42.43673605124999</v>
+      </c>
+      <c r="G177">
+        <v>-0.4283204180939009</v>
+      </c>
+      <c r="H177" s="2">
+        <v>44493</v>
+      </c>
+      <c r="I177" s="2">
+        <v>44584</v>
+      </c>
+      <c r="J177" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178">
+        <v>1631</v>
+      </c>
+      <c r="B178">
+        <v>722</v>
+      </c>
+      <c r="C178">
+        <v>814</v>
+      </c>
+      <c r="D178">
+        <v>0.06074891823</v>
+      </c>
+      <c r="E178">
+        <v>0.03507142</v>
+      </c>
+      <c r="F178">
+        <v>-41.87999961313</v>
+      </c>
+      <c r="G178">
+        <v>-0.4226823946524125</v>
+      </c>
+      <c r="H178" s="2">
+        <v>44492</v>
+      </c>
+      <c r="I178" s="2">
+        <v>44584</v>
+      </c>
+      <c r="J178" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179">
+        <v>1591</v>
+      </c>
+      <c r="B179">
+        <v>721</v>
+      </c>
+      <c r="C179">
+        <v>814</v>
+      </c>
+      <c r="D179">
+        <v>0.06225534315</v>
+      </c>
+      <c r="E179">
+        <v>0.03507142</v>
+      </c>
+      <c r="F179">
+        <v>-43.24962173165</v>
+      </c>
+      <c r="G179">
+        <v>-0.4366520490378182</v>
+      </c>
+      <c r="H179" s="2">
+        <v>44491</v>
+      </c>
+      <c r="I179" s="2">
+        <v>44584</v>
+      </c>
+      <c r="J179" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180">
+        <v>1499</v>
+      </c>
+      <c r="B180">
+        <v>720</v>
+      </c>
+      <c r="C180">
+        <v>814</v>
+      </c>
+      <c r="D180">
+        <v>0.06606740139999998</v>
+      </c>
+      <c r="E180">
+        <v>0.03507142</v>
+      </c>
+      <c r="F180">
+        <v>-46.46297611859996</v>
+      </c>
+      <c r="G180">
+        <v>-0.4691569630889098</v>
+      </c>
+      <c r="H180" s="2">
+        <v>44490</v>
+      </c>
+      <c r="I180" s="2">
+        <v>44584</v>
+      </c>
+      <c r="J180" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181">
+        <v>1540</v>
+      </c>
+      <c r="B181">
+        <v>719</v>
+      </c>
+      <c r="C181">
+        <v>814</v>
+      </c>
+      <c r="D181">
+        <v>0.06434487058999999</v>
+      </c>
+      <c r="E181">
+        <v>0.03507142</v>
+      </c>
+      <c r="F181">
+        <v>-45.08111390859999</v>
+      </c>
+      <c r="G181">
+        <v>-0.4549461413408991</v>
+      </c>
+      <c r="H181" s="2">
+        <v>44489</v>
+      </c>
+      <c r="I181" s="2">
+        <v>44584</v>
+      </c>
+      <c r="J181" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182">
+        <v>1596</v>
+      </c>
+      <c r="B182">
+        <v>718</v>
+      </c>
+      <c r="C182">
+        <v>814</v>
+      </c>
+      <c r="D182">
+        <v>0.06206760559999999</v>
+      </c>
+      <c r="E182">
+        <v>0.03507142</v>
+      </c>
+      <c r="F182">
+        <v>-43.08591221759999</v>
+      </c>
+      <c r="G182">
+        <v>-0.4349480753934545</v>
+      </c>
+      <c r="H182" s="2">
+        <v>44488</v>
+      </c>
+      <c r="I182" s="2">
+        <v>44584</v>
+      </c>
+      <c r="J182" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183">
+        <v>1609</v>
+      </c>
+      <c r="B183">
+        <v>717</v>
+      </c>
+      <c r="C183">
+        <v>814</v>
+      </c>
+      <c r="D183">
+        <v>0.06158984831999999</v>
+      </c>
+      <c r="E183">
+        <v>0.03507142</v>
+      </c>
+      <c r="F183">
+        <v>-42.66815116687998</v>
+      </c>
+      <c r="G183">
+        <v>-0.4305649233331315</v>
+      </c>
+      <c r="H183" s="2">
+        <v>44487</v>
+      </c>
+      <c r="I183" s="2">
+        <v>44584</v>
+      </c>
+      <c r="J183" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184">
+        <v>1626</v>
+      </c>
+      <c r="B184">
+        <v>716</v>
+      </c>
+      <c r="C184">
+        <v>814</v>
+      </c>
+      <c r="D184">
+        <v>0.06093644556999999</v>
+      </c>
+      <c r="E184">
+        <v>0.03507142</v>
+      </c>
+      <c r="F184">
+        <v>-42.05653157681999</v>
+      </c>
+      <c r="G184">
+        <v>-0.4244590462744969</v>
+      </c>
+      <c r="H184" s="2">
+        <v>44486</v>
+      </c>
+      <c r="I184" s="2">
+        <v>44584</v>
+      </c>
+      <c r="J184" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185">
+        <v>1605</v>
+      </c>
+      <c r="B185">
+        <v>715</v>
+      </c>
+      <c r="C185">
+        <v>814</v>
+      </c>
+      <c r="D185">
+        <v>0.06173409241999999</v>
+      </c>
+      <c r="E185">
+        <v>0.03507142</v>
+      </c>
+      <c r="F185">
+        <v>-42.79358923409998</v>
+      </c>
+      <c r="G185">
+        <v>-0.4318954304633478</v>
+      </c>
+      <c r="H185" s="2">
+        <v>44485</v>
+      </c>
+      <c r="I185" s="2">
+        <v>44584</v>
+      </c>
+      <c r="J185" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186">
+        <v>1649</v>
+      </c>
+      <c r="B186">
+        <v>534</v>
+      </c>
+      <c r="C186">
+        <v>814</v>
+      </c>
+      <c r="D186">
+        <v>0.06006667666999999</v>
+      </c>
+      <c r="E186">
+        <v>0.03507142</v>
+      </c>
+      <c r="F186">
+        <v>-41.21717824882999</v>
+      </c>
+      <c r="G186">
+        <v>-0.4161251804777099</v>
+      </c>
+      <c r="H186" s="2">
+        <v>44304</v>
+      </c>
+      <c r="I186" s="2">
+        <v>44584</v>
+      </c>
+      <c r="J186" s="3">
         <v>280</v>
       </c>
     </row>
